--- a/data/extracted/Congressional Election Results by State (2012 - 113th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2012 - 113th).xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11222"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/Professional/Projects/Redistricting/pitches/V4 - Beyond the EG/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABBB815-9193-6A4C-84B7-40C78743CC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20140" yWindow="11300" windowWidth="23580" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="4" r:id="rId2"/>
     <sheet name="Uncontested PIVOT" sheetId="5" r:id="rId3"/>
-    <sheet name="Sources" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Uncontested Races'!$A$2:$J$82</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="159">
   <si>
     <t>State</t>
   </si>
@@ -81,9 +91,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Votes</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -355,18 +362,6 @@
   </si>
   <si>
     <t>**</t>
-  </si>
-  <si>
-    <t>Delegation splits</t>
-  </si>
-  <si>
-    <t>http://history.house.gov/Institution/Election-Statistics/2012election/</t>
-  </si>
-  <si>
-    <t>http://history.house.gov/Congressional-Overview/Profiles/113th/</t>
-  </si>
-  <si>
-    <t>http://historycms.house.gov/WorkArea/DownloadAsset.aspx?id=15032414923</t>
   </si>
   <si>
     <t>Validation</t>
@@ -534,8 +529,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -577,28 +572,6 @@
       <i/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -697,16 +670,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,12 +693,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -734,11 +703,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -830,12 +794,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42865.358821759262" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="80">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42865.358821759262" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="80" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:J82" sheet="Uncontested Races"/>
   </cacheSource>
@@ -1950,7 +1917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2329,6 +2296,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -2595,7 +2565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2609,101 +2579,101 @@
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="27"/>
+    <col min="3" max="3" width="10.83203125" style="20"/>
     <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="27" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="74" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="20" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="67" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="68" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="24" customWidth="1"/>
     <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" style="28" customWidth="1"/>
     <col min="14" max="14" width="5.83203125" customWidth="1"/>
-    <col min="15" max="15" width="26" style="31" customWidth="1"/>
+    <col min="15" max="15" width="26" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="17" t="s">
-        <v>156</v>
+        <v>14</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="33"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="66"/>
+      <c r="J1" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="26"/>
       <c r="L1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="29"/>
-    </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>144</v>
+      <c r="H2" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="C3" s="20">
         <v>1233624</v>
       </c>
       <c r="D3" s="3">
@@ -2716,42 +2686,42 @@
       <c r="F3" s="3">
         <v>1933630</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="20">
         <v>200676</v>
       </c>
-      <c r="H3" s="74">
-        <v>1</v>
-      </c>
-      <c r="I3" s="74">
-        <v>0</v>
-      </c>
-      <c r="J3" s="75">
-        <f>(F3-G3)/(N3-SUM(H3:I3))</f>
+      <c r="H3" s="67">
+        <v>1</v>
+      </c>
+      <c r="I3" s="67">
+        <v>0</v>
+      </c>
+      <c r="J3" s="68">
+        <f t="shared" ref="J3:J34" si="1">(F3-G3)/(N3-SUM(H3:I3))</f>
         <v>288825.66666666669</v>
       </c>
-      <c r="K3" s="36">
-        <f t="shared" ref="K3:K52" si="1">N3-L3-M3</f>
+      <c r="K3" s="29">
+        <f t="shared" ref="K3:K52" si="2">N3-L3-M3</f>
         <v>6</v>
       </c>
-      <c r="L3" s="35">
-        <v>1</v>
-      </c>
-      <c r="M3" s="35">
+      <c r="L3" s="28">
+        <v>1</v>
+      </c>
+      <c r="M3" s="28">
         <v>0</v>
       </c>
       <c r="N3">
         <v>7</v>
       </c>
-      <c r="O3" s="31"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="C4" s="20">
         <v>185296</v>
       </c>
       <c r="D4" s="3">
@@ -2764,42 +2734,42 @@
       <c r="F4" s="3">
         <v>289804</v>
       </c>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="74">
-        <v>0</v>
-      </c>
-      <c r="I4" s="74">
-        <v>0</v>
-      </c>
-      <c r="J4" s="75">
-        <f>(F4-G4)/(N4-SUM(H4:I4))</f>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="67">
+        <v>0</v>
+      </c>
+      <c r="I4" s="67">
+        <v>0</v>
+      </c>
+      <c r="J4" s="68">
+        <f t="shared" si="1"/>
         <v>289804</v>
       </c>
-      <c r="K4" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="35">
+      <c r="K4" s="29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="28">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
         <v>0</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" s="34"/>
+      <c r="O4" s="27"/>
     </row>
     <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="20">
         <v>1131663</v>
       </c>
       <c r="D5" s="3">
@@ -2812,42 +2782,42 @@
       <c r="F5" s="3">
         <v>2173317</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="20">
         <v>127827</v>
       </c>
-      <c r="H5" s="74">
-        <v>0</v>
-      </c>
-      <c r="I5" s="74">
-        <v>1</v>
-      </c>
-      <c r="J5" s="75">
-        <f>(F5-G5)/(N5-SUM(H5:I5))</f>
+      <c r="H5" s="67">
+        <v>0</v>
+      </c>
+      <c r="I5" s="67">
+        <v>1</v>
+      </c>
+      <c r="J5" s="68">
+        <f t="shared" si="1"/>
         <v>255686.25</v>
       </c>
-      <c r="K5" s="36">
-        <f t="shared" si="1"/>
+      <c r="K5" s="29">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="28">
         <v>5</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="28">
         <v>0</v>
       </c>
       <c r="N5">
         <v>9</v>
       </c>
-      <c r="O5" s="34"/>
+      <c r="O5" s="27"/>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="C6" s="20">
         <v>637591</v>
       </c>
       <c r="D6" s="3">
@@ -2860,42 +2830,42 @@
       <c r="F6" s="3">
         <v>1038054</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="20">
         <v>245660</v>
       </c>
-      <c r="H6" s="74">
-        <v>1</v>
-      </c>
-      <c r="I6" s="74">
-        <v>0</v>
-      </c>
-      <c r="J6" s="75">
-        <f>(F6-G6)/(N6-SUM(H6:I6))</f>
+      <c r="H6" s="67">
+        <v>1</v>
+      </c>
+      <c r="I6" s="67">
+        <v>0</v>
+      </c>
+      <c r="J6" s="68">
+        <f t="shared" si="1"/>
         <v>264131.33333333331</v>
       </c>
-      <c r="K6" s="36">
-        <f t="shared" si="1"/>
+      <c r="K6" s="29">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L6" s="35">
-        <v>0</v>
-      </c>
-      <c r="M6" s="35">
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
         <v>0</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
-      <c r="O6" s="34"/>
+      <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="C7" s="20">
         <v>4530012</v>
       </c>
       <c r="D7" s="3">
@@ -2908,42 +2878,42 @@
       <c r="F7" s="3">
         <v>12204357</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="20">
         <v>2428159</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="67">
         <v>3</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="67">
         <v>9</v>
       </c>
-      <c r="J7" s="75">
-        <f>(F7-G7)/(N7-SUM(H7:I7))</f>
+      <c r="J7" s="68">
+        <f t="shared" si="1"/>
         <v>238443.85365853659</v>
       </c>
-      <c r="K7" s="36">
-        <f t="shared" si="1"/>
+      <c r="K7" s="29">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="28">
         <v>38</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="28">
         <v>0</v>
       </c>
       <c r="N7">
         <v>53</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="C8" s="20">
         <v>1143796</v>
       </c>
       <c r="D8" s="3">
@@ -2956,42 +2926,42 @@
       <c r="F8" s="3">
         <v>2450488</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="20">
         <v>307231</v>
       </c>
-      <c r="H8" s="74">
-        <v>1</v>
-      </c>
-      <c r="I8" s="74">
-        <v>0</v>
-      </c>
-      <c r="J8" s="75">
-        <f>(F8-G8)/(N8-SUM(H8:I8))</f>
+      <c r="H8" s="67">
+        <v>1</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0</v>
+      </c>
+      <c r="J8" s="68">
+        <f t="shared" si="1"/>
         <v>357209.5</v>
       </c>
-      <c r="K8" s="36">
-        <f t="shared" si="1"/>
+      <c r="K8" s="29">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="28">
         <v>3</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="28">
         <v>0</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
-      <c r="O8" s="34"/>
+      <c r="O8" s="27"/>
     </row>
     <row r="9" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="C9" s="20">
         <v>490580</v>
       </c>
       <c r="D9" s="3">
@@ -3004,42 +2974,42 @@
       <c r="F9" s="3">
         <v>1466511</v>
       </c>
-      <c r="G9" s="27">
-        <v>0</v>
-      </c>
-      <c r="H9" s="74">
-        <v>0</v>
-      </c>
-      <c r="I9" s="74">
-        <v>0</v>
-      </c>
-      <c r="J9" s="75">
-        <f>(F9-G9)/(N9-SUM(H9:I9))</f>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="67">
+        <v>0</v>
+      </c>
+      <c r="I9" s="67">
+        <v>0</v>
+      </c>
+      <c r="J9" s="68">
+        <f t="shared" si="1"/>
         <v>293302.2</v>
       </c>
-      <c r="K9" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="35">
+      <c r="K9" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
         <v>5</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="28">
         <v>0</v>
       </c>
       <c r="N9">
         <v>5</v>
       </c>
-      <c r="O9" s="34"/>
+      <c r="O9" s="27"/>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="C10" s="20">
         <v>129757</v>
       </c>
       <c r="D10" s="3">
@@ -3052,42 +3022,42 @@
       <c r="F10" s="3">
         <v>388059</v>
       </c>
-      <c r="G10" s="27">
-        <v>0</v>
-      </c>
-      <c r="H10" s="74">
-        <v>0</v>
-      </c>
-      <c r="I10" s="74">
-        <v>0</v>
-      </c>
-      <c r="J10" s="75">
-        <f>(F10-G10)/(N10-SUM(H10:I10))</f>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="67">
+        <v>0</v>
+      </c>
+      <c r="I10" s="67">
+        <v>0</v>
+      </c>
+      <c r="J10" s="68">
+        <f t="shared" si="1"/>
         <v>388059</v>
       </c>
-      <c r="K10" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="35">
-        <v>1</v>
-      </c>
-      <c r="M10" s="35">
+      <c r="K10" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="28">
+        <v>1</v>
+      </c>
+      <c r="M10" s="28">
         <v>0</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="20">
         <v>3826522</v>
       </c>
       <c r="D11" s="3">
@@ -3100,45 +3070,45 @@
       <c r="F11" s="3">
         <v>7513534</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="20">
         <v>1044384</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="67">
         <v>3</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="67">
         <v>3</v>
       </c>
-      <c r="J11" s="75">
-        <f>(F11-G11)/(N11-SUM(H11:I11))</f>
+      <c r="J11" s="68">
+        <f t="shared" si="1"/>
         <v>308054.76190476189</v>
       </c>
-      <c r="K11" s="36">
-        <f t="shared" si="1"/>
+      <c r="K11" s="29">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="28">
         <v>10</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="28">
         <v>0</v>
       </c>
       <c r="N11">
         <v>27</v>
       </c>
-      <c r="O11" s="34"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="C12" s="20">
         <v>2104098</v>
       </c>
       <c r="D12" s="3">
@@ -3151,42 +3121,42 @@
       <c r="F12" s="3">
         <v>3552967</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="20">
         <v>641234</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="67">
         <v>3</v>
       </c>
-      <c r="I12" s="74">
-        <v>0</v>
-      </c>
-      <c r="J12" s="75">
-        <f>(F12-G12)/(N12-SUM(H12:I12))</f>
+      <c r="I12" s="67">
+        <v>0</v>
+      </c>
+      <c r="J12" s="68">
+        <f t="shared" si="1"/>
         <v>264703</v>
       </c>
-      <c r="K12" s="36">
-        <f t="shared" si="1"/>
+      <c r="K12" s="29">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="28">
         <v>5</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="28">
         <v>0</v>
       </c>
       <c r="N12">
         <v>14</v>
       </c>
-      <c r="O12" s="34"/>
+      <c r="O12" s="27"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="C13" s="20">
         <v>137531</v>
       </c>
       <c r="D13" s="3">
@@ -3199,27 +3169,27 @@
       <c r="F13" s="3">
         <v>437159</v>
       </c>
-      <c r="G13" s="27">
-        <v>0</v>
-      </c>
-      <c r="H13" s="74">
-        <v>0</v>
-      </c>
-      <c r="I13" s="74">
-        <v>0</v>
-      </c>
-      <c r="J13" s="75">
-        <f>(F13-G13)/(N13-SUM(H13:I13))</f>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="67">
+        <v>0</v>
+      </c>
+      <c r="I13" s="67">
+        <v>0</v>
+      </c>
+      <c r="J13" s="68">
+        <f t="shared" si="1"/>
         <v>218579.5</v>
       </c>
-      <c r="K13" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="35">
+      <c r="K13" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="28">
         <v>2</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="28">
         <v>0</v>
       </c>
       <c r="N13">
@@ -3228,12 +3198,12 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="27">
+      <c r="C14" s="20">
         <v>406814</v>
       </c>
       <c r="D14" s="3">
@@ -3246,27 +3216,27 @@
       <c r="F14" s="3">
         <v>635218</v>
       </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="74">
-        <v>0</v>
-      </c>
-      <c r="I14" s="74">
-        <v>0</v>
-      </c>
-      <c r="J14" s="75">
-        <f>(F14-G14)/(N14-SUM(H14:I14))</f>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="67">
+        <v>0</v>
+      </c>
+      <c r="I14" s="67">
+        <v>0</v>
+      </c>
+      <c r="J14" s="68">
+        <f t="shared" si="1"/>
         <v>317609</v>
       </c>
-      <c r="K14" s="36">
-        <f t="shared" si="1"/>
+      <c r="K14" s="29">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="35">
-        <v>0</v>
-      </c>
-      <c r="M14" s="35">
+      <c r="L14" s="28">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
         <v>0</v>
       </c>
       <c r="N14">
@@ -3275,12 +3245,12 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="20">
         <v>2207818</v>
       </c>
       <c r="D15" s="3">
@@ -3293,27 +3263,27 @@
       <c r="F15" s="3">
         <v>5058133</v>
       </c>
-      <c r="G15" s="27">
-        <v>0</v>
-      </c>
-      <c r="H15" s="74">
-        <v>0</v>
-      </c>
-      <c r="I15" s="74">
-        <v>0</v>
-      </c>
-      <c r="J15" s="75">
-        <f>(F15-G15)/(N15-SUM(H15:I15))</f>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="67">
+        <v>0</v>
+      </c>
+      <c r="I15" s="67">
+        <v>0</v>
+      </c>
+      <c r="J15" s="68">
+        <f t="shared" si="1"/>
         <v>281007.38888888888</v>
       </c>
-      <c r="K15" s="36">
-        <f t="shared" si="1"/>
+      <c r="K15" s="29">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="28">
         <v>12</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="28">
         <v>0</v>
       </c>
       <c r="N15">
@@ -3322,12 +3292,12 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="20">
         <v>1351760</v>
       </c>
       <c r="D16" s="3">
@@ -3340,27 +3310,27 @@
       <c r="F16" s="3">
         <v>2553746</v>
       </c>
-      <c r="G16" s="27">
-        <v>0</v>
-      </c>
-      <c r="H16" s="74">
-        <v>0</v>
-      </c>
-      <c r="I16" s="74">
-        <v>0</v>
-      </c>
-      <c r="J16" s="75">
-        <f>(F16-G16)/(N16-SUM(H16:I16))</f>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="67">
+        <v>0</v>
+      </c>
+      <c r="I16" s="67">
+        <v>0</v>
+      </c>
+      <c r="J16" s="68">
+        <f t="shared" si="1"/>
         <v>283749.55555555556</v>
       </c>
-      <c r="K16" s="36">
-        <f t="shared" si="1"/>
+      <c r="K16" s="29">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="28">
         <v>2</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="28">
         <v>0</v>
       </c>
       <c r="N16">
@@ -3369,12 +3339,12 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="27">
+      <c r="C17" s="20">
         <v>726505</v>
       </c>
       <c r="D17" s="3">
@@ -3387,27 +3357,27 @@
       <c r="F17" s="3">
         <v>1536849</v>
       </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="74">
-        <v>0</v>
-      </c>
-      <c r="I17" s="74">
-        <v>0</v>
-      </c>
-      <c r="J17" s="75">
-        <f>(F17-G17)/(N17-SUM(H17:I17))</f>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="67">
+        <v>0</v>
+      </c>
+      <c r="I17" s="67">
+        <v>0</v>
+      </c>
+      <c r="J17" s="68">
+        <f t="shared" si="1"/>
         <v>384212.25</v>
       </c>
-      <c r="K17" s="36">
-        <f t="shared" si="1"/>
+      <c r="K17" s="29">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="28">
         <v>2</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="28">
         <v>0</v>
       </c>
       <c r="N17">
@@ -3416,12 +3386,12 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="27">
+      <c r="C18" s="20">
         <v>740981</v>
       </c>
       <c r="D18" s="3">
@@ -3434,27 +3404,27 @@
       <c r="F18" s="3">
         <v>1057739</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="20">
         <v>505099</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="67">
         <v>2</v>
       </c>
-      <c r="I18" s="74">
-        <v>0</v>
-      </c>
-      <c r="J18" s="75">
-        <f>(F18-G18)/(N18-SUM(H18:I18))</f>
+      <c r="I18" s="67">
+        <v>0</v>
+      </c>
+      <c r="J18" s="68">
+        <f t="shared" si="1"/>
         <v>276320</v>
       </c>
-      <c r="K18" s="36">
-        <f t="shared" si="1"/>
+      <c r="K18" s="29">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L18" s="35">
-        <v>0</v>
-      </c>
-      <c r="M18" s="35">
+      <c r="L18" s="28">
+        <v>0</v>
+      </c>
+      <c r="M18" s="28">
         <v>0</v>
       </c>
       <c r="N18">
@@ -3463,12 +3433,12 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="27">
+      <c r="C19" s="20">
         <v>1027582</v>
       </c>
       <c r="D19" s="3">
@@ -3481,27 +3451,27 @@
       <c r="F19" s="3">
         <v>1745377</v>
       </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="74">
-        <v>0</v>
-      </c>
-      <c r="I19" s="74">
-        <v>0</v>
-      </c>
-      <c r="J19" s="75">
-        <f>(F19-G19)/(N19-SUM(H19:I19))</f>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="67">
+        <v>0</v>
+      </c>
+      <c r="I19" s="67">
+        <v>0</v>
+      </c>
+      <c r="J19" s="68">
+        <f t="shared" si="1"/>
         <v>290896.16666666669</v>
       </c>
-      <c r="K19" s="36">
-        <f t="shared" si="1"/>
+      <c r="K19" s="29">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L19" s="35">
-        <v>1</v>
-      </c>
-      <c r="M19" s="35">
+      <c r="L19" s="28">
+        <v>1</v>
+      </c>
+      <c r="M19" s="28">
         <v>0</v>
       </c>
       <c r="N19">
@@ -3510,12 +3480,12 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="27">
+      <c r="C20" s="20">
         <v>1143027</v>
       </c>
       <c r="D20" s="3">
@@ -3528,27 +3498,27 @@
       <c r="F20" s="3">
         <v>1705617</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="20">
         <v>816460</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="67">
         <v>3</v>
       </c>
-      <c r="I20" s="74">
-        <v>0</v>
-      </c>
-      <c r="J20" s="75">
-        <f>(F20-G20)/(N20-SUM(H20:I20))</f>
+      <c r="I20" s="67">
+        <v>0</v>
+      </c>
+      <c r="J20" s="68">
+        <f t="shared" si="1"/>
         <v>296385.66666666669</v>
       </c>
-      <c r="K20" s="36">
-        <f t="shared" si="1"/>
+      <c r="K20" s="29">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L20" s="35">
-        <v>1</v>
-      </c>
-      <c r="M20" s="35">
+      <c r="L20" s="28">
+        <v>1</v>
+      </c>
+      <c r="M20" s="28">
         <v>0</v>
       </c>
       <c r="N20">
@@ -3557,12 +3527,12 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="C21" s="20">
         <v>265982</v>
       </c>
       <c r="D21" s="3">
@@ -3575,27 +3545,27 @@
       <c r="F21" s="3">
         <v>724623</v>
       </c>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="74">
-        <v>0</v>
-      </c>
-      <c r="I21" s="74">
-        <v>0</v>
-      </c>
-      <c r="J21" s="75">
-        <f>(F21-G21)/(N21-SUM(H21:I21))</f>
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="67">
+        <v>0</v>
+      </c>
+      <c r="I21" s="67">
+        <v>0</v>
+      </c>
+      <c r="J21" s="68">
+        <f t="shared" si="1"/>
         <v>362311.5</v>
       </c>
-      <c r="K21" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="35">
+      <c r="K21" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="28">
         <v>2</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="28">
         <v>0</v>
       </c>
       <c r="N21">
@@ -3604,12 +3574,12 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="20">
         <v>858406</v>
       </c>
       <c r="D22" s="3">
@@ -3622,27 +3592,27 @@
       <c r="F22" s="3">
         <v>2585514</v>
       </c>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="74">
-        <v>0</v>
-      </c>
-      <c r="I22" s="74">
-        <v>0</v>
-      </c>
-      <c r="J22" s="75">
-        <f>(F22-G22)/(N22-SUM(H22:I22))</f>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="67">
+        <v>0</v>
+      </c>
+      <c r="I22" s="67">
+        <v>0</v>
+      </c>
+      <c r="J22" s="68">
+        <f t="shared" si="1"/>
         <v>323189.25</v>
       </c>
-      <c r="K22" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="35">
+      <c r="K22" s="29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="28">
         <v>7</v>
       </c>
-      <c r="M22" s="35">
+      <c r="M22" s="28">
         <v>0</v>
       </c>
       <c r="N22">
@@ -3651,12 +3621,12 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="27">
+      <c r="C23" s="20">
         <v>697637</v>
       </c>
       <c r="D23" s="3">
@@ -3669,27 +3639,27 @@
       <c r="F23" s="3">
         <v>3184196</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="20">
         <v>964425</v>
       </c>
-      <c r="H23" s="74">
-        <v>0</v>
-      </c>
-      <c r="I23" s="74">
+      <c r="H23" s="67">
+        <v>0</v>
+      </c>
+      <c r="I23" s="67">
         <v>3</v>
       </c>
-      <c r="J23" s="75">
-        <f>(F23-G23)/(N23-SUM(H23:I23))</f>
+      <c r="J23" s="68">
+        <f t="shared" si="1"/>
         <v>369961.83333333331</v>
       </c>
-      <c r="K23" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="35">
+      <c r="K23" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="28">
         <v>9</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23" s="28">
         <v>0</v>
       </c>
       <c r="N23">
@@ -3698,12 +3668,12 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="20">
         <v>2086804</v>
       </c>
       <c r="D24" s="3">
@@ -3716,27 +3686,27 @@
       <c r="F24" s="3">
         <v>4574632</v>
       </c>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="74">
-        <v>0</v>
-      </c>
-      <c r="I24" s="74">
-        <v>0</v>
-      </c>
-      <c r="J24" s="75">
-        <f>(F24-G24)/(N24-SUM(H24:I24))</f>
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="67">
+        <v>0</v>
+      </c>
+      <c r="I24" s="67">
+        <v>0</v>
+      </c>
+      <c r="J24" s="68">
+        <f t="shared" si="1"/>
         <v>326759.42857142858</v>
       </c>
-      <c r="K24" s="36">
-        <f t="shared" si="1"/>
+      <c r="K24" s="29">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24" s="28">
         <v>5</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24" s="28">
         <v>0</v>
       </c>
       <c r="N24">
@@ -3745,12 +3715,12 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="27">
+      <c r="C25" s="20">
         <v>1210409</v>
       </c>
       <c r="D25" s="3">
@@ -3763,27 +3733,27 @@
       <c r="F25" s="3">
         <v>2813383</v>
       </c>
-      <c r="G25" s="27">
-        <v>0</v>
-      </c>
-      <c r="H25" s="74">
-        <v>0</v>
-      </c>
-      <c r="I25" s="74">
-        <v>0</v>
-      </c>
-      <c r="J25" s="75">
-        <f>(F25-G25)/(N25-SUM(H25:I25))</f>
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="67">
+        <v>0</v>
+      </c>
+      <c r="I25" s="67">
+        <v>0</v>
+      </c>
+      <c r="J25" s="68">
+        <f t="shared" si="1"/>
         <v>351672.875</v>
       </c>
-      <c r="K25" s="36">
-        <f t="shared" si="1"/>
+      <c r="K25" s="29">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="28">
         <v>5</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25" s="28">
         <v>0</v>
       </c>
       <c r="N25">
@@ -3792,12 +3762,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="27">
+      <c r="C26" s="20">
         <v>703635</v>
       </c>
       <c r="D26" s="3">
@@ -3810,27 +3780,27 @@
       <c r="F26" s="3">
         <v>1208175</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="20">
         <v>293322</v>
       </c>
-      <c r="H26" s="74">
-        <v>1</v>
-      </c>
-      <c r="I26" s="74">
-        <v>0</v>
-      </c>
-      <c r="J26" s="75">
-        <f>(F26-G26)/(N26-SUM(H26:I26))</f>
+      <c r="H26" s="67">
+        <v>1</v>
+      </c>
+      <c r="I26" s="67">
+        <v>0</v>
+      </c>
+      <c r="J26" s="68">
+        <f t="shared" si="1"/>
         <v>304951</v>
       </c>
-      <c r="K26" s="36">
-        <f t="shared" si="1"/>
+      <c r="K26" s="29">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L26" s="35">
-        <v>1</v>
-      </c>
-      <c r="M26" s="35">
+      <c r="L26" s="28">
+        <v>1</v>
+      </c>
+      <c r="M26" s="28">
         <v>0</v>
       </c>
       <c r="N26">
@@ -3839,12 +3809,12 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="27">
+      <c r="C27" s="20">
         <v>1463586</v>
       </c>
       <c r="D27" s="3">
@@ -3857,27 +3827,27 @@
       <c r="F27" s="3">
         <v>2675900</v>
       </c>
-      <c r="G27" s="27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="74">
-        <v>0</v>
-      </c>
-      <c r="I27" s="74">
-        <v>0</v>
-      </c>
-      <c r="J27" s="75">
-        <f>(F27-G27)/(N27-SUM(H27:I27))</f>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="67">
+        <v>0</v>
+      </c>
+      <c r="I27" s="67">
+        <v>0</v>
+      </c>
+      <c r="J27" s="68">
+        <f t="shared" si="1"/>
         <v>334487.5</v>
       </c>
-      <c r="K27" s="36">
-        <f t="shared" si="1"/>
+      <c r="K27" s="29">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="28">
         <v>2</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="28">
         <v>0</v>
       </c>
       <c r="N27">
@@ -3886,12 +3856,12 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="27">
+      <c r="C28" s="20">
         <v>255468</v>
       </c>
       <c r="D28" s="3">
@@ -3904,27 +3874,27 @@
       <c r="F28" s="3">
         <v>479740</v>
       </c>
-      <c r="G28" s="27">
-        <v>0</v>
-      </c>
-      <c r="H28" s="74">
-        <v>0</v>
-      </c>
-      <c r="I28" s="74">
-        <v>0</v>
-      </c>
-      <c r="J28" s="75">
-        <f>(F28-G28)/(N28-SUM(H28:I28))</f>
+      <c r="G28" s="20">
+        <v>0</v>
+      </c>
+      <c r="H28" s="67">
+        <v>0</v>
+      </c>
+      <c r="I28" s="67">
+        <v>0</v>
+      </c>
+      <c r="J28" s="68">
+        <f t="shared" si="1"/>
         <v>479740</v>
       </c>
-      <c r="K28" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="35">
-        <v>0</v>
-      </c>
-      <c r="M28" s="35">
+      <c r="K28" s="29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="28">
         <v>0</v>
       </c>
       <c r="N28">
@@ -3933,12 +3903,12 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="27">
+      <c r="C29" s="20">
         <v>496276</v>
       </c>
       <c r="D29" s="3">
@@ -3951,27 +3921,27 @@
       <c r="F29" s="3">
         <v>772515</v>
       </c>
-      <c r="G29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="74">
-        <v>0</v>
-      </c>
-      <c r="I29" s="74">
-        <v>0</v>
-      </c>
-      <c r="J29" s="75">
-        <f>(F29-G29)/(N29-SUM(H29:I29))</f>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29" s="67">
+        <v>0</v>
+      </c>
+      <c r="I29" s="67">
+        <v>0</v>
+      </c>
+      <c r="J29" s="68">
+        <f t="shared" si="1"/>
         <v>257505</v>
       </c>
-      <c r="K29" s="36">
-        <f t="shared" si="1"/>
+      <c r="K29" s="29">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L29" s="35">
-        <v>0</v>
-      </c>
-      <c r="M29" s="35">
+      <c r="L29" s="28">
+        <v>0</v>
+      </c>
+      <c r="M29" s="28">
         <v>0</v>
       </c>
       <c r="N29">
@@ -3980,12 +3950,12 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="27">
+      <c r="C30" s="20">
         <v>457239</v>
       </c>
       <c r="D30" s="3">
@@ -3998,27 +3968,27 @@
       <c r="F30" s="3">
         <v>973742</v>
       </c>
-      <c r="G30" s="27">
-        <v>0</v>
-      </c>
-      <c r="H30" s="74">
-        <v>0</v>
-      </c>
-      <c r="I30" s="74">
-        <v>0</v>
-      </c>
-      <c r="J30" s="75">
-        <f>(F30-G30)/(N30-SUM(H30:I30))</f>
+      <c r="G30" s="20">
+        <v>0</v>
+      </c>
+      <c r="H30" s="67">
+        <v>0</v>
+      </c>
+      <c r="I30" s="67">
+        <v>0</v>
+      </c>
+      <c r="J30" s="68">
+        <f t="shared" si="1"/>
         <v>243435.5</v>
       </c>
-      <c r="K30" s="36">
-        <f t="shared" si="1"/>
+      <c r="K30" s="29">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L30" s="35">
+      <c r="L30" s="28">
         <v>2</v>
       </c>
-      <c r="M30" s="35">
+      <c r="M30" s="28">
         <v>0</v>
       </c>
       <c r="N30">
@@ -4027,12 +3997,12 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="27">
+      <c r="C31" s="20">
         <v>311636</v>
       </c>
       <c r="D31" s="3">
@@ -4045,27 +4015,27 @@
       <c r="F31" s="3">
         <v>682416</v>
       </c>
-      <c r="G31" s="27">
-        <v>0</v>
-      </c>
-      <c r="H31" s="74">
-        <v>0</v>
-      </c>
-      <c r="I31" s="74">
-        <v>0</v>
-      </c>
-      <c r="J31" s="75">
-        <f>(F31-G31)/(N31-SUM(H31:I31))</f>
+      <c r="G31" s="20">
+        <v>0</v>
+      </c>
+      <c r="H31" s="67">
+        <v>0</v>
+      </c>
+      <c r="I31" s="67">
+        <v>0</v>
+      </c>
+      <c r="J31" s="68">
+        <f t="shared" si="1"/>
         <v>341208</v>
       </c>
-      <c r="K31" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="35">
+      <c r="K31" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="28">
         <v>2</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="28">
         <v>0</v>
       </c>
       <c r="N31">
@@ -4074,12 +4044,12 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="27">
+      <c r="C32" s="20">
         <v>1430325</v>
       </c>
       <c r="D32" s="3">
@@ -4092,27 +4062,27 @@
       <c r="F32" s="3">
         <v>3281778</v>
       </c>
-      <c r="G32" s="27">
-        <v>0</v>
-      </c>
-      <c r="H32" s="74">
-        <v>0</v>
-      </c>
-      <c r="I32" s="74">
-        <v>0</v>
-      </c>
-      <c r="J32" s="75">
-        <f>(F32-G32)/(N32-SUM(H32:I32))</f>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="67">
+        <v>0</v>
+      </c>
+      <c r="I32" s="67">
+        <v>0</v>
+      </c>
+      <c r="J32" s="68">
+        <f t="shared" si="1"/>
         <v>273481.5</v>
       </c>
-      <c r="K32" s="36">
-        <f t="shared" si="1"/>
+      <c r="K32" s="29">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="28">
         <v>6</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="30">
         <v>0</v>
       </c>
       <c r="N32">
@@ -4121,12 +4091,12 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="27">
+      <c r="C33" s="20">
         <v>343269</v>
       </c>
       <c r="D33" s="3">
@@ -4139,27 +4109,27 @@
       <c r="F33" s="3">
         <v>766090</v>
       </c>
-      <c r="G33" s="27">
-        <v>0</v>
-      </c>
-      <c r="H33" s="74">
-        <v>0</v>
-      </c>
-      <c r="I33" s="74">
-        <v>0</v>
-      </c>
-      <c r="J33" s="75">
-        <f>(F33-G33)/(N33-SUM(H33:I33))</f>
+      <c r="G33" s="20">
+        <v>0</v>
+      </c>
+      <c r="H33" s="67">
+        <v>0</v>
+      </c>
+      <c r="I33" s="67">
+        <v>0</v>
+      </c>
+      <c r="J33" s="68">
+        <f t="shared" si="1"/>
         <v>255363.33333333334</v>
       </c>
-      <c r="K33" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L33" s="35">
+      <c r="K33" s="29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="28">
         <v>2</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="28">
         <v>0</v>
       </c>
       <c r="N33">
@@ -4168,12 +4138,12 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="27">
+      <c r="C34" s="20">
         <v>1733037</v>
       </c>
       <c r="D34" s="3">
@@ -4186,27 +4156,27 @@
       <c r="F34" s="3">
         <v>7116336</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="20">
         <v>178825</v>
       </c>
-      <c r="H34" s="74">
-        <v>0</v>
-      </c>
-      <c r="I34" s="74">
-        <v>1</v>
-      </c>
-      <c r="J34" s="75">
-        <f>(F34-G34)/(N34-SUM(H34:I34))</f>
+      <c r="H34" s="67">
+        <v>0</v>
+      </c>
+      <c r="I34" s="67">
+        <v>1</v>
+      </c>
+      <c r="J34" s="68">
+        <f t="shared" si="1"/>
         <v>266827.34615384613</v>
       </c>
-      <c r="K34" s="36">
-        <f t="shared" si="1"/>
+      <c r="K34" s="29">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L34" s="35">
+      <c r="L34" s="28">
         <v>21</v>
       </c>
-      <c r="M34" s="35">
+      <c r="M34" s="28">
         <v>0</v>
       </c>
       <c r="N34">
@@ -4215,12 +4185,12 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="20">
         <v>2137167</v>
       </c>
       <c r="D35" s="3">
@@ -4233,27 +4203,27 @@
       <c r="F35" s="3">
         <v>4384112</v>
       </c>
-      <c r="G35" s="27">
-        <v>0</v>
-      </c>
-      <c r="H35" s="74">
-        <v>0</v>
-      </c>
-      <c r="I35" s="74">
-        <v>0</v>
-      </c>
-      <c r="J35" s="75">
-        <f>(F35-G35)/(N35-SUM(H35:I35))</f>
+      <c r="G35" s="20">
+        <v>0</v>
+      </c>
+      <c r="H35" s="67">
+        <v>0</v>
+      </c>
+      <c r="I35" s="67">
+        <v>0</v>
+      </c>
+      <c r="J35" s="68">
+        <f t="shared" ref="J35:J66" si="3">(F35-G35)/(N35-SUM(H35:I35))</f>
         <v>337239.38461538462</v>
       </c>
-      <c r="K35" s="36">
-        <f t="shared" si="1"/>
+      <c r="K35" s="29">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35" s="28">
         <v>4</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="30">
         <v>0</v>
       </c>
       <c r="N35">
@@ -4262,12 +4232,12 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="27">
+      <c r="C36" s="20">
         <v>173585</v>
       </c>
       <c r="D36" s="3">
@@ -4280,27 +4250,27 @@
       <c r="F36" s="3">
         <v>316224</v>
       </c>
-      <c r="G36" s="27">
-        <v>0</v>
-      </c>
-      <c r="H36" s="74">
-        <v>0</v>
-      </c>
-      <c r="I36" s="74">
-        <v>0</v>
-      </c>
-      <c r="J36" s="75">
-        <f>(F36-G36)/(N36-SUM(H36:I36))</f>
+      <c r="G36" s="20">
+        <v>0</v>
+      </c>
+      <c r="H36" s="67">
+        <v>0</v>
+      </c>
+      <c r="I36" s="67">
+        <v>0</v>
+      </c>
+      <c r="J36" s="68">
+        <f t="shared" si="3"/>
         <v>316224</v>
       </c>
-      <c r="K36" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="35">
-        <v>0</v>
-      </c>
-      <c r="M36" s="35">
+      <c r="K36" s="29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="28">
+        <v>0</v>
+      </c>
+      <c r="M36" s="28">
         <v>0</v>
       </c>
       <c r="N36">
@@ -4309,12 +4279,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="20">
         <v>2620233</v>
       </c>
       <c r="D37" s="3">
@@ -4327,27 +4297,27 @@
       <c r="F37" s="3">
         <v>5142126</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="20">
         <v>506675</v>
       </c>
-      <c r="H37" s="74">
-        <v>1</v>
-      </c>
-      <c r="I37" s="74">
-        <v>1</v>
-      </c>
-      <c r="J37" s="75">
-        <f>(F37-G37)/(N37-SUM(H37:I37))</f>
+      <c r="H37" s="67">
+        <v>1</v>
+      </c>
+      <c r="I37" s="67">
+        <v>1</v>
+      </c>
+      <c r="J37" s="68">
+        <f t="shared" si="3"/>
         <v>331103.64285714284</v>
       </c>
-      <c r="K37" s="36">
-        <f t="shared" si="1"/>
+      <c r="K37" s="29">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="L37" s="35">
+      <c r="L37" s="28">
         <v>4</v>
       </c>
-      <c r="M37" s="35">
+      <c r="M37" s="28">
         <v>0</v>
       </c>
       <c r="N37">
@@ -4356,12 +4326,12 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="27">
+      <c r="C38" s="20">
         <v>856872</v>
       </c>
       <c r="D38" s="3">
@@ -4374,27 +4344,27 @@
       <c r="F38" s="3">
         <v>1325935</v>
       </c>
-      <c r="G38" s="27">
-        <v>0</v>
-      </c>
-      <c r="H38" s="74">
-        <v>0</v>
-      </c>
-      <c r="I38" s="74">
-        <v>0</v>
-      </c>
-      <c r="J38" s="75">
-        <f>(F38-G38)/(N38-SUM(H38:I38))</f>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38" s="67">
+        <v>0</v>
+      </c>
+      <c r="I38" s="67">
+        <v>0</v>
+      </c>
+      <c r="J38" s="68">
+        <f t="shared" si="3"/>
         <v>265187</v>
       </c>
-      <c r="K38" s="36">
-        <f t="shared" si="1"/>
+      <c r="K38" s="29">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L38" s="35">
-        <v>0</v>
-      </c>
-      <c r="M38" s="35">
+      <c r="L38" s="28">
+        <v>0</v>
+      </c>
+      <c r="M38" s="28">
         <v>0</v>
       </c>
       <c r="N38">
@@ -4403,12 +4373,12 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="27">
+      <c r="C39" s="20">
         <v>547290</v>
       </c>
       <c r="D39" s="3">
@@ -4421,27 +4391,27 @@
       <c r="F39" s="3">
         <v>1708168</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="20">
         <v>692343</v>
       </c>
-      <c r="H39" s="74">
-        <v>1</v>
-      </c>
-      <c r="I39" s="74">
-        <v>1</v>
-      </c>
-      <c r="J39" s="75">
-        <f>(F39-G39)/(N39-SUM(H39:I39))</f>
+      <c r="H39" s="67">
+        <v>1</v>
+      </c>
+      <c r="I39" s="67">
+        <v>1</v>
+      </c>
+      <c r="J39" s="68">
+        <f t="shared" si="3"/>
         <v>338608.33333333331</v>
       </c>
-      <c r="K39" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L39" s="35">
+      <c r="K39" s="29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L39" s="28">
         <v>4</v>
       </c>
-      <c r="M39" s="35">
+      <c r="M39" s="28">
         <v>0</v>
       </c>
       <c r="N39">
@@ -4450,12 +4420,12 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="20">
         <v>2710070</v>
       </c>
       <c r="D40" s="3">
@@ -4468,27 +4438,27 @@
       <c r="F40" s="3">
         <v>5556330</v>
       </c>
-      <c r="G40" s="27">
-        <v>0</v>
-      </c>
-      <c r="H40" s="74">
-        <v>0</v>
-      </c>
-      <c r="I40" s="74">
-        <v>0</v>
-      </c>
-      <c r="J40" s="75">
-        <f>(F40-G40)/(N40-SUM(H40:I40))</f>
+      <c r="G40" s="20">
+        <v>0</v>
+      </c>
+      <c r="H40" s="67">
+        <v>0</v>
+      </c>
+      <c r="I40" s="67">
+        <v>0</v>
+      </c>
+      <c r="J40" s="68">
+        <f t="shared" si="3"/>
         <v>308685</v>
       </c>
-      <c r="K40" s="36">
-        <f t="shared" si="1"/>
+      <c r="K40" s="29">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="L40" s="35">
+      <c r="L40" s="28">
         <v>5</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M40" s="28">
         <v>0</v>
       </c>
       <c r="N40">
@@ -4497,12 +4467,12 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="27">
+      <c r="C41" s="20">
         <v>161926</v>
       </c>
       <c r="D41" s="3">
@@ -4515,27 +4485,27 @@
       <c r="F41" s="3">
         <v>427775</v>
       </c>
-      <c r="G41" s="27">
-        <v>0</v>
-      </c>
-      <c r="H41" s="74">
-        <v>0</v>
-      </c>
-      <c r="I41" s="74">
-        <v>0</v>
-      </c>
-      <c r="J41" s="75">
-        <f>(F41-G41)/(N41-SUM(H41:I41))</f>
+      <c r="G41" s="20">
+        <v>0</v>
+      </c>
+      <c r="H41" s="67">
+        <v>0</v>
+      </c>
+      <c r="I41" s="67">
+        <v>0</v>
+      </c>
+      <c r="J41" s="68">
+        <f t="shared" si="3"/>
         <v>213887.5</v>
       </c>
-      <c r="K41" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="35">
+      <c r="K41" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="28">
         <v>2</v>
       </c>
-      <c r="M41" s="35">
+      <c r="M41" s="28">
         <v>0</v>
       </c>
       <c r="N41">
@@ -4544,12 +4514,12 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
         <v>86</v>
       </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="27">
+      <c r="C42" s="20">
         <v>1026129</v>
       </c>
       <c r="D42" s="3">
@@ -4562,27 +4532,27 @@
       <c r="F42" s="3">
         <v>1802734</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="20">
         <v>437333</v>
       </c>
-      <c r="H42" s="74">
-        <v>1</v>
-      </c>
-      <c r="I42" s="74">
-        <v>1</v>
-      </c>
-      <c r="J42" s="75">
-        <f>(F42-G42)/(N42-SUM(H42:I42))</f>
+      <c r="H42" s="67">
+        <v>1</v>
+      </c>
+      <c r="I42" s="67">
+        <v>1</v>
+      </c>
+      <c r="J42" s="68">
+        <f t="shared" si="3"/>
         <v>273080.2</v>
       </c>
-      <c r="K42" s="36">
-        <f t="shared" si="1"/>
+      <c r="K42" s="29">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L42" s="35">
-        <v>1</v>
-      </c>
-      <c r="M42" s="35">
+      <c r="L42" s="28">
+        <v>1</v>
+      </c>
+      <c r="M42" s="28">
         <v>0</v>
       </c>
       <c r="N42">
@@ -4591,12 +4561,12 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
         <v>88</v>
       </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="27">
+      <c r="C43" s="20">
         <v>207640</v>
       </c>
       <c r="D43" s="3">
@@ -4609,27 +4579,27 @@
       <c r="F43" s="3">
         <v>361429</v>
       </c>
-      <c r="G43" s="27">
-        <v>0</v>
-      </c>
-      <c r="H43" s="74">
-        <v>0</v>
-      </c>
-      <c r="I43" s="74">
-        <v>0</v>
-      </c>
-      <c r="J43" s="75">
-        <f>(F43-G43)/(N43-SUM(H43:I43))</f>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="67">
+        <v>0</v>
+      </c>
+      <c r="I43" s="67">
+        <v>0</v>
+      </c>
+      <c r="J43" s="68">
+        <f t="shared" si="3"/>
         <v>361429</v>
       </c>
-      <c r="K43" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L43" s="35">
-        <v>0</v>
-      </c>
-      <c r="M43" s="35">
+      <c r="K43" s="29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L43" s="28">
+        <v>0</v>
+      </c>
+      <c r="M43" s="28">
         <v>0</v>
       </c>
       <c r="N43">
@@ -4638,12 +4608,12 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="27">
+      <c r="C44" s="20">
         <v>1369562</v>
       </c>
       <c r="D44" s="3">
@@ -4656,27 +4626,27 @@
       <c r="F44" s="3">
         <v>2283727</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="20">
         <v>241241</v>
       </c>
-      <c r="H44" s="74">
-        <v>1</v>
-      </c>
-      <c r="I44" s="74">
-        <v>0</v>
-      </c>
-      <c r="J44" s="75">
-        <f>(F44-G44)/(N44-SUM(H44:I44))</f>
+      <c r="H44" s="67">
+        <v>1</v>
+      </c>
+      <c r="I44" s="67">
+        <v>0</v>
+      </c>
+      <c r="J44" s="68">
+        <f t="shared" si="3"/>
         <v>255310.75</v>
       </c>
-      <c r="K44" s="36">
-        <f t="shared" si="1"/>
+      <c r="K44" s="29">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L44" s="35">
+      <c r="L44" s="28">
         <v>2</v>
       </c>
-      <c r="M44" s="35">
+      <c r="M44" s="28">
         <v>0</v>
       </c>
       <c r="N44">
@@ -4685,12 +4655,12 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="20">
         <v>4429270</v>
       </c>
       <c r="D45" s="3">
@@ -4703,27 +4673,27 @@
       <c r="F45" s="3">
         <v>7664208</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="20">
         <v>860504</v>
       </c>
-      <c r="H45" s="74">
+      <c r="H45" s="67">
         <v>4</v>
       </c>
-      <c r="I45" s="74">
-        <v>1</v>
-      </c>
-      <c r="J45" s="75">
-        <f>(F45-G45)/(N45-SUM(H45:I45))</f>
+      <c r="I45" s="67">
+        <v>1</v>
+      </c>
+      <c r="J45" s="68">
+        <f t="shared" si="3"/>
         <v>219474.32258064515</v>
       </c>
-      <c r="K45" s="36">
-        <f t="shared" si="1"/>
+      <c r="K45" s="29">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="L45" s="35">
+      <c r="L45" s="28">
         <v>12</v>
       </c>
-      <c r="M45" s="35">
+      <c r="M45" s="28">
         <v>0</v>
       </c>
       <c r="N45">
@@ -4732,12 +4702,12 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="27">
+      <c r="C46" s="20">
         <v>647873</v>
       </c>
       <c r="D46" s="3">
@@ -4750,27 +4720,27 @@
       <c r="F46" s="3">
         <v>998897</v>
       </c>
-      <c r="G46" s="27">
-        <v>0</v>
-      </c>
-      <c r="H46" s="74">
-        <v>0</v>
-      </c>
-      <c r="I46" s="74">
-        <v>0</v>
-      </c>
-      <c r="J46" s="75">
-        <f>(F46-G46)/(N46-SUM(H46:I46))</f>
+      <c r="G46" s="20">
+        <v>0</v>
+      </c>
+      <c r="H46" s="67">
+        <v>0</v>
+      </c>
+      <c r="I46" s="67">
+        <v>0</v>
+      </c>
+      <c r="J46" s="68">
+        <f t="shared" si="3"/>
         <v>249724.25</v>
       </c>
-      <c r="K46" s="36">
-        <f t="shared" si="1"/>
+      <c r="K46" s="29">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L46" s="35">
-        <v>1</v>
-      </c>
-      <c r="M46" s="35">
+      <c r="L46" s="28">
+        <v>1</v>
+      </c>
+      <c r="M46" s="28">
         <v>0</v>
       </c>
       <c r="N46">
@@ -4779,12 +4749,12 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="27">
+      <c r="C47" s="20">
         <v>67543</v>
       </c>
       <c r="D47" s="3">
@@ -4797,27 +4767,27 @@
       <c r="F47" s="3">
         <v>289931</v>
       </c>
-      <c r="G47" s="27">
-        <v>0</v>
-      </c>
-      <c r="H47" s="74">
-        <v>0</v>
-      </c>
-      <c r="I47" s="74">
-        <v>0</v>
-      </c>
-      <c r="J47" s="75">
-        <f>(F47-G47)/(N47-SUM(H47:I47))</f>
+      <c r="G47" s="20">
+        <v>0</v>
+      </c>
+      <c r="H47" s="67">
+        <v>0</v>
+      </c>
+      <c r="I47" s="67">
+        <v>0</v>
+      </c>
+      <c r="J47" s="68">
+        <f t="shared" si="3"/>
         <v>289931</v>
       </c>
-      <c r="K47" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="35">
-        <v>1</v>
-      </c>
-      <c r="M47" s="35">
+      <c r="K47" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="28">
+        <v>1</v>
+      </c>
+      <c r="M47" s="28">
         <v>0</v>
       </c>
       <c r="N47">
@@ -4826,12 +4796,12 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="20">
         <v>1876761</v>
       </c>
       <c r="D48" s="3">
@@ -4844,27 +4814,27 @@
       <c r="F48" s="3">
         <v>3740455</v>
       </c>
-      <c r="G48" s="27">
-        <v>0</v>
-      </c>
-      <c r="H48" s="74">
-        <v>0</v>
-      </c>
-      <c r="I48" s="74">
-        <v>0</v>
-      </c>
-      <c r="J48" s="75">
-        <f>(F48-G48)/(N48-SUM(H48:I48))</f>
+      <c r="G48" s="20">
+        <v>0</v>
+      </c>
+      <c r="H48" s="67">
+        <v>0</v>
+      </c>
+      <c r="I48" s="67">
+        <v>0</v>
+      </c>
+      <c r="J48" s="68">
+        <f t="shared" si="3"/>
         <v>340041.36363636365</v>
       </c>
-      <c r="K48" s="36">
-        <f t="shared" si="1"/>
+      <c r="K48" s="29">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L48" s="35">
+      <c r="L48" s="28">
         <v>3</v>
       </c>
-      <c r="M48" s="37">
+      <c r="M48" s="30">
         <v>0</v>
       </c>
       <c r="N48">
@@ -4873,12 +4843,12 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="27">
+      <c r="C49" s="20">
         <v>1369540</v>
       </c>
       <c r="D49" s="3">
@@ -4891,27 +4861,27 @@
       <c r="F49" s="3">
         <v>3006266</v>
       </c>
-      <c r="G49" s="27">
-        <v>0</v>
-      </c>
-      <c r="H49" s="74">
-        <v>0</v>
-      </c>
-      <c r="I49" s="74">
-        <v>0</v>
-      </c>
-      <c r="J49" s="75">
-        <f>(F49-G49)/(N49-SUM(H49:I49))</f>
+      <c r="G49" s="20">
+        <v>0</v>
+      </c>
+      <c r="H49" s="67">
+        <v>0</v>
+      </c>
+      <c r="I49" s="67">
+        <v>0</v>
+      </c>
+      <c r="J49" s="68">
+        <f t="shared" si="3"/>
         <v>300626.59999999998</v>
       </c>
-      <c r="K49" s="36">
-        <f t="shared" si="1"/>
+      <c r="K49" s="29">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L49" s="35">
+      <c r="L49" s="28">
         <v>6</v>
       </c>
-      <c r="M49" s="35">
+      <c r="M49" s="28">
         <v>0</v>
       </c>
       <c r="N49">
@@ -4920,12 +4890,12 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="27">
+      <c r="C50" s="20">
         <v>384253</v>
       </c>
       <c r="D50" s="3">
@@ -4938,27 +4908,27 @@
       <c r="F50" s="3">
         <v>641354</v>
       </c>
-      <c r="G50" s="27">
-        <v>0</v>
-      </c>
-      <c r="H50" s="74">
-        <v>0</v>
-      </c>
-      <c r="I50" s="74">
-        <v>0</v>
-      </c>
-      <c r="J50" s="75">
-        <f>(F50-G50)/(N50-SUM(H50:I50))</f>
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="67">
+        <v>0</v>
+      </c>
+      <c r="I50" s="67">
+        <v>0</v>
+      </c>
+      <c r="J50" s="68">
+        <f t="shared" si="3"/>
         <v>213784.66666666666</v>
       </c>
-      <c r="K50" s="36">
-        <f t="shared" si="1"/>
+      <c r="K50" s="29">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L50" s="35">
-        <v>1</v>
-      </c>
-      <c r="M50" s="35">
+      <c r="L50" s="28">
+        <v>1</v>
+      </c>
+      <c r="M50" s="28">
         <v>0</v>
       </c>
       <c r="N50">
@@ -4967,12 +4937,12 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="20">
         <v>1401995</v>
       </c>
       <c r="D51" s="3">
@@ -4985,27 +4955,27 @@
       <c r="F51" s="3">
         <v>2866050</v>
       </c>
-      <c r="G51" s="27">
-        <v>0</v>
-      </c>
-      <c r="H51" s="74">
-        <v>0</v>
-      </c>
-      <c r="I51" s="74">
-        <v>0</v>
-      </c>
-      <c r="J51" s="75">
-        <f>(F51-G51)/(N51-SUM(H51:I51))</f>
+      <c r="G51" s="20">
+        <v>0</v>
+      </c>
+      <c r="H51" s="67">
+        <v>0</v>
+      </c>
+      <c r="I51" s="67">
+        <v>0</v>
+      </c>
+      <c r="J51" s="68">
+        <f t="shared" si="3"/>
         <v>358256.25</v>
       </c>
-      <c r="K51" s="36">
-        <f t="shared" si="1"/>
+      <c r="K51" s="29">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L51" s="35">
+      <c r="L51" s="28">
         <v>3</v>
       </c>
-      <c r="M51" s="35">
+      <c r="M51" s="28">
         <v>0</v>
       </c>
       <c r="N51">
@@ -5014,12 +4984,12 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="27">
+      <c r="C52" s="20">
         <v>166452</v>
       </c>
       <c r="D52" s="3">
@@ -5032,27 +5002,27 @@
       <c r="F52" s="3">
         <v>250700</v>
       </c>
-      <c r="G52" s="27">
-        <v>0</v>
-      </c>
-      <c r="H52" s="74">
-        <v>0</v>
-      </c>
-      <c r="I52" s="74">
-        <v>0</v>
-      </c>
-      <c r="J52" s="75">
-        <f>(F52-G52)/(N52-SUM(H52:I52))</f>
+      <c r="G52" s="20">
+        <v>0</v>
+      </c>
+      <c r="H52" s="67">
+        <v>0</v>
+      </c>
+      <c r="I52" s="67">
+        <v>0</v>
+      </c>
+      <c r="J52" s="68">
+        <f t="shared" si="3"/>
         <v>250700</v>
       </c>
-      <c r="K52" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L52" s="35">
-        <v>0</v>
-      </c>
-      <c r="M52" s="35">
+      <c r="K52" s="29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="28">
+        <v>0</v>
+      </c>
+      <c r="M52" s="28">
         <v>0</v>
       </c>
       <c r="N52">
@@ -5062,65 +5032,65 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="30">
+      <c r="C54" s="23">
         <f>SUM(C3:C52)</f>
         <v>57622827</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" ref="D54:F54" si="2">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:F54" si="4">SUM(D3:D52)</f>
         <v>59214910</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5508283</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>122346020</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="23">
         <f>SUM(G3:G52)</f>
         <v>10491398</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" ref="H54:I54" si="3">SUM(H3:H52)</f>
+        <f t="shared" ref="H54:I54" si="5">SUM(H3:H52)</f>
         <v>26</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="J54" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="32">
+      <c r="J54" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="25">
         <f>SUM(K3:K52)</f>
         <v>234</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" ref="L54:N54" si="4">SUM(L3:L52)</f>
+        <f t="shared" ref="L54:N54" si="6">SUM(L3:L52)</f>
         <v>201</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>435</v>
       </c>
-      <c r="O54" s="32"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="27">
+        <v>105</v>
+      </c>
+      <c r="C57" s="20">
         <v>57622827</v>
       </c>
       <c r="D57" s="3">
@@ -5129,13 +5099,13 @@
       <c r="F57" s="3">
         <v>122346020</v>
       </c>
-      <c r="K57" s="31">
+      <c r="K57" s="24">
         <v>234</v>
       </c>
       <c r="L57">
         <v>201</v>
       </c>
-      <c r="M57" s="35">
+      <c r="M57" s="28">
         <v>0</v>
       </c>
       <c r="N57">
@@ -5144,24 +5114,24 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="27">
+        <v>106</v>
+      </c>
+      <c r="C58" s="20">
         <f>C54-C57</f>
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:F58" si="5">D54-D57</f>
+        <f t="shared" ref="D58:F58" si="7">D54-D57</f>
         <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="24">
         <f>K54-K57</f>
         <v>0</v>
       </c>
@@ -5169,7 +5139,7 @@
         <f>L54-L57</f>
         <v>0</v>
       </c>
-      <c r="M58" s="35">
+      <c r="M58" s="28">
         <f>M54-M57</f>
         <v>0</v>
       </c>
@@ -5180,7 +5150,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState ref="A5:X54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:X54">
     <sortCondition ref="A5:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5188,7 +5158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5202,2712 +5172,2712 @@
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="31"/>
-    <col min="6" max="6" width="10.83203125" style="38"/>
+    <col min="4" max="4" width="10.83203125" style="24"/>
+    <col min="6" max="6" width="10.83203125" style="31"/>
     <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="10.83203125" style="31"/>
-    <col min="11" max="11" width="52.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="24"/>
+    <col min="11" max="11" width="52.33203125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="63" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="B3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="46">
+      <c r="C3" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="39">
         <v>196374</v>
       </c>
-      <c r="E3" s="44">
-        <v>0</v>
-      </c>
-      <c r="F3" s="45">
+      <c r="E3" s="37">
+        <v>0</v>
+      </c>
+      <c r="F3" s="38">
         <f t="shared" ref="F3:F22" si="0">G3-SUM(D3:E3)</f>
         <v>4302</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="37">
         <v>200676</v>
       </c>
-      <c r="H3" s="43">
-        <v>1</v>
-      </c>
-      <c r="I3" s="42">
-        <v>0</v>
-      </c>
-      <c r="J3" s="42">
+      <c r="H3" s="36">
+        <v>1</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0</v>
+      </c>
+      <c r="J3" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="C4" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0</v>
+      </c>
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="46">
-        <v>0</v>
-      </c>
-      <c r="E4" s="44">
-        <v>0</v>
-      </c>
-      <c r="F4" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="44">
-        <v>0</v>
-      </c>
-      <c r="H4" s="43">
-        <v>0</v>
-      </c>
-      <c r="I4" s="42">
-        <v>0</v>
-      </c>
-      <c r="J4" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="46">
-        <v>0</v>
-      </c>
-      <c r="E5" s="44">
+      <c r="C5" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
         <v>104489</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="38">
         <f t="shared" si="0"/>
         <v>23338</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="37">
         <v>127827</v>
       </c>
-      <c r="H5" s="43">
-        <v>0</v>
-      </c>
-      <c r="I5" s="42">
-        <v>1</v>
-      </c>
-      <c r="J5" s="42">
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
+        <v>1</v>
+      </c>
+      <c r="J5" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="46">
+      <c r="C6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="39">
         <v>186467</v>
       </c>
-      <c r="E6" s="44">
-        <v>0</v>
-      </c>
-      <c r="F6" s="45">
+      <c r="E6" s="37">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38">
         <f t="shared" si="0"/>
         <v>59193</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="37">
         <v>245660</v>
       </c>
-      <c r="H6" s="43">
-        <v>1</v>
-      </c>
-      <c r="I6" s="42">
-        <v>0</v>
-      </c>
-      <c r="J6" s="42">
+      <c r="H6" s="36">
+        <v>1</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0</v>
+      </c>
+      <c r="J6" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="46">
+      <c r="C7" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="39">
         <v>179644</v>
       </c>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="45">
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="37">
         <v>179644</v>
       </c>
-      <c r="H7" s="43">
-        <v>1</v>
-      </c>
-      <c r="I7" s="42">
-        <v>0</v>
-      </c>
-      <c r="J7" s="42">
+      <c r="H7" s="36">
+        <v>1</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="46">
-        <v>0</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="C8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="39">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
         <v>250436</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="38">
         <f t="shared" si="0"/>
         <v>38146</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="37">
         <v>288582</v>
       </c>
-      <c r="H8" s="43">
-        <v>0</v>
-      </c>
-      <c r="I8" s="42">
-        <v>1</v>
-      </c>
-      <c r="J8" s="42">
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1</v>
+      </c>
+      <c r="J8" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="46">
-        <v>0</v>
-      </c>
-      <c r="E9" s="44">
+      <c r="C9" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
         <v>231034</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="37">
         <v>231034</v>
       </c>
-      <c r="H9" s="43">
-        <v>0</v>
-      </c>
-      <c r="I9" s="42">
-        <v>1</v>
-      </c>
-      <c r="J9" s="42">
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="46">
+      <c r="C10" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="39">
         <v>158161</v>
       </c>
-      <c r="E10" s="44">
-        <v>0</v>
-      </c>
-      <c r="F10" s="45">
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="38">
         <f t="shared" si="0"/>
         <v>57842</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="37">
         <v>216003</v>
       </c>
-      <c r="H10" s="43">
-        <v>1</v>
-      </c>
-      <c r="I10" s="42">
-        <v>0</v>
-      </c>
-      <c r="J10" s="42">
+      <c r="H10" s="36">
+        <v>1</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0</v>
+      </c>
+      <c r="J10" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="46">
-        <v>0</v>
-      </c>
-      <c r="E11" s="44">
+      <c r="C11" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
         <v>111287</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="38">
         <f t="shared" si="0"/>
         <v>38994</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="37">
         <v>150281</v>
       </c>
-      <c r="H11" s="43">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
-        <v>1</v>
-      </c>
-      <c r="J11" s="42">
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="46">
-        <v>0</v>
-      </c>
-      <c r="E12" s="44">
+      <c r="C12" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
         <v>247851</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="37">
         <v>247851</v>
       </c>
-      <c r="H12" s="43">
-        <v>0</v>
-      </c>
-      <c r="I12" s="42">
-        <v>1</v>
-      </c>
-      <c r="J12" s="42">
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>1</v>
+      </c>
+      <c r="J12" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="46">
+      <c r="C13" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="39">
         <v>161219</v>
       </c>
-      <c r="E13" s="44">
-        <v>0</v>
-      </c>
-      <c r="F13" s="45">
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="37">
         <v>161219</v>
       </c>
-      <c r="H13" s="43">
-        <v>1</v>
-      </c>
-      <c r="I13" s="42">
-        <v>0</v>
-      </c>
-      <c r="J13" s="42">
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0</v>
+      </c>
+      <c r="J13" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="46">
-        <v>0</v>
-      </c>
-      <c r="E14" s="44">
+      <c r="C14" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37">
         <v>171860</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="38">
         <f t="shared" si="0"/>
         <v>146660</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="37">
         <v>318520</v>
       </c>
-      <c r="H14" s="43">
-        <v>0</v>
-      </c>
-      <c r="I14" s="42">
-        <v>1</v>
-      </c>
-      <c r="J14" s="42">
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="35">
+        <v>1</v>
+      </c>
+      <c r="J14" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="C15" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="39">
+        <v>0</v>
+      </c>
+      <c r="E15" s="37">
+        <v>142680</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="37">
+        <v>142680</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37">
+        <v>125553</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="37">
+        <v>125553</v>
+      </c>
+      <c r="H16" s="36">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37">
+        <v>200894</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="37">
+        <v>200894</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35">
+        <v>1</v>
+      </c>
+      <c r="J17" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="39">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37">
+        <v>165898</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="37">
+        <v>165898</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <v>1</v>
+      </c>
+      <c r="J18" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="46">
-        <v>0</v>
-      </c>
-      <c r="E15" s="44">
-        <v>142680</v>
-      </c>
-      <c r="F15" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="44">
-        <v>142680</v>
-      </c>
-      <c r="H15" s="43">
-        <v>0</v>
-      </c>
-      <c r="I15" s="42">
-        <v>1</v>
-      </c>
-      <c r="J15" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="46">
-        <v>0</v>
-      </c>
-      <c r="E16" s="44">
-        <v>125553</v>
-      </c>
-      <c r="F16" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
-        <v>125553</v>
-      </c>
-      <c r="H16" s="43">
-        <v>0</v>
-      </c>
-      <c r="I16" s="42">
-        <v>1</v>
-      </c>
-      <c r="J16" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="46">
-        <v>0</v>
-      </c>
-      <c r="E17" s="44">
-        <v>200894</v>
-      </c>
-      <c r="F17" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="44">
-        <v>200894</v>
-      </c>
-      <c r="H17" s="43">
-        <v>0</v>
-      </c>
-      <c r="I17" s="42">
-        <v>1</v>
-      </c>
-      <c r="J17" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="46">
-        <v>0</v>
-      </c>
-      <c r="E18" s="44">
-        <v>165898</v>
-      </c>
-      <c r="F18" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="44">
-        <v>165898</v>
-      </c>
-      <c r="H18" s="43">
-        <v>0</v>
-      </c>
-      <c r="I18" s="42">
-        <v>1</v>
-      </c>
-      <c r="J18" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="B19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="46">
+      <c r="C19" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="39">
         <v>199639</v>
       </c>
-      <c r="E19" s="44">
-        <v>0</v>
-      </c>
-      <c r="F19" s="45">
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="38">
         <f t="shared" si="0"/>
         <v>107592</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="37">
         <v>307231</v>
       </c>
-      <c r="H19" s="43">
-        <v>1</v>
-      </c>
-      <c r="I19" s="42">
-        <v>0</v>
-      </c>
-      <c r="J19" s="42">
+      <c r="H19" s="36">
+        <v>1</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="C20" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0</v>
+      </c>
+      <c r="H20" s="36">
+        <v>0</v>
+      </c>
+      <c r="I20" s="35">
+        <v>0</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="46">
-        <v>0</v>
-      </c>
-      <c r="E20" s="44">
-        <v>0</v>
-      </c>
-      <c r="F20" s="45">
+      <c r="B21" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="39">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0</v>
+      </c>
+      <c r="F21" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="44">
-        <v>0</v>
-      </c>
-      <c r="H20" s="43">
-        <v>0</v>
-      </c>
-      <c r="I20" s="42">
-        <v>0</v>
-      </c>
-      <c r="J20" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="48" t="s">
+      <c r="G21" s="37">
+        <v>0</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0</v>
+      </c>
+      <c r="I21" s="35">
+        <v>0</v>
+      </c>
+      <c r="J21" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="46">
-        <v>0</v>
-      </c>
-      <c r="E21" s="44">
-        <v>0</v>
-      </c>
-      <c r="F21" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="44">
-        <v>0</v>
-      </c>
-      <c r="H21" s="43">
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
-        <v>0</v>
-      </c>
-      <c r="J21" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="46">
+      <c r="C22" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="39">
         <v>239988</v>
       </c>
-      <c r="E22" s="44">
-        <v>0</v>
-      </c>
-      <c r="F22" s="45">
+      <c r="E22" s="37">
+        <v>0</v>
+      </c>
+      <c r="F22" s="38">
         <f t="shared" si="0"/>
         <v>75482</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="37">
         <v>315470</v>
       </c>
-      <c r="H22" s="43">
-        <v>1</v>
-      </c>
-      <c r="I22" s="42">
-        <v>0</v>
-      </c>
-      <c r="J22" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="H22" s="36">
+        <v>1</v>
+      </c>
+      <c r="I22" s="35">
+        <v>0</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="52">
-        <v>1</v>
-      </c>
-      <c r="I23" s="51">
-        <v>0</v>
-      </c>
-      <c r="J23" s="51">
-        <v>0</v>
-      </c>
-      <c r="K23" s="50" t="s">
-        <v>129</v>
+      <c r="C23" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="45">
+        <v>1</v>
+      </c>
+      <c r="I23" s="44">
+        <v>0</v>
+      </c>
+      <c r="J23" s="44">
+        <v>0</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="46">
-        <v>0</v>
-      </c>
-      <c r="E24" s="44">
+      <c r="C24" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="39">
+        <v>0</v>
+      </c>
+      <c r="E24" s="37">
         <v>214727</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="38">
         <f>G24-SUM(D24:E24)</f>
         <v>29558</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="37">
         <v>244285</v>
       </c>
-      <c r="H24" s="43">
-        <v>0</v>
-      </c>
-      <c r="I24" s="42">
-        <v>1</v>
-      </c>
-      <c r="J24" s="42">
+      <c r="H24" s="36">
+        <v>0</v>
+      </c>
+      <c r="I24" s="35">
+        <v>1</v>
+      </c>
+      <c r="J24" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="46">
-        <v>0</v>
-      </c>
-      <c r="E25" s="44">
+      <c r="C25" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="39">
+        <v>0</v>
+      </c>
+      <c r="E25" s="37">
         <v>221263</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="38">
         <f>G25-SUM(D25:E25)</f>
         <v>63137</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="37">
         <v>284400</v>
       </c>
-      <c r="H25" s="43">
-        <v>0</v>
-      </c>
-      <c r="I25" s="42">
-        <v>1</v>
-      </c>
-      <c r="J25" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="56" t="s">
+      <c r="H25" s="36">
+        <v>0</v>
+      </c>
+      <c r="I25" s="35">
+        <v>1</v>
+      </c>
+      <c r="J25" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="54" t="str">
+      <c r="C26" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="47" t="str">
         <f>G23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H26" s="52">
-        <v>0</v>
-      </c>
-      <c r="I26" s="51">
-        <v>1</v>
-      </c>
-      <c r="J26" s="51">
-        <v>0</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>129</v>
+      <c r="H26" s="45">
+        <v>0</v>
+      </c>
+      <c r="I26" s="44">
+        <v>1</v>
+      </c>
+      <c r="J26" s="44">
+        <v>0</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="47" t="s">
+      <c r="A27" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="46">
+      <c r="C27" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="39">
         <v>151466</v>
       </c>
-      <c r="E27" s="44">
-        <v>0</v>
-      </c>
-      <c r="F27" s="45">
+      <c r="E27" s="37">
+        <v>0</v>
+      </c>
+      <c r="F27" s="38">
         <f t="shared" ref="F27:F58" si="1">G27-SUM(D27:E27)</f>
         <v>48763</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="37">
         <v>200229</v>
       </c>
-      <c r="H27" s="43">
-        <v>1</v>
-      </c>
-      <c r="I27" s="42">
-        <v>0</v>
-      </c>
-      <c r="J27" s="42">
+      <c r="H27" s="36">
+        <v>1</v>
+      </c>
+      <c r="I27" s="35">
+        <v>0</v>
+      </c>
+      <c r="J27" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="C28" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="39">
+        <v>232380</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0</v>
+      </c>
+      <c r="F28" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="37">
+        <v>232380</v>
+      </c>
+      <c r="H28" s="36">
+        <v>1</v>
+      </c>
+      <c r="I28" s="35">
+        <v>0</v>
+      </c>
+      <c r="J28" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="39">
+        <v>197789</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="37">
+        <v>197789</v>
+      </c>
+      <c r="H29" s="36">
+        <v>1</v>
+      </c>
+      <c r="I29" s="35">
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="39">
+        <v>211065</v>
+      </c>
+      <c r="E30" s="37">
+        <v>0</v>
+      </c>
+      <c r="F30" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="37">
+        <v>211065</v>
+      </c>
+      <c r="H30" s="36">
+        <v>1</v>
+      </c>
+      <c r="I30" s="35">
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="46">
-        <v>232380</v>
-      </c>
-      <c r="E28" s="44">
-        <v>0</v>
-      </c>
-      <c r="F28" s="45">
+      <c r="B31" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="39">
+        <v>0</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0</v>
+      </c>
+      <c r="F31" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="44">
-        <v>232380</v>
-      </c>
-      <c r="H28" s="43">
-        <v>1</v>
-      </c>
-      <c r="I28" s="42">
-        <v>0</v>
-      </c>
-      <c r="J28" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="46">
-        <v>197789</v>
-      </c>
-      <c r="E29" s="44">
-        <v>0</v>
-      </c>
-      <c r="F29" s="45">
+      <c r="G31" s="37">
+        <v>0</v>
+      </c>
+      <c r="H31" s="36">
+        <v>0</v>
+      </c>
+      <c r="I31" s="35">
+        <v>0</v>
+      </c>
+      <c r="J31" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="39">
+        <v>0</v>
+      </c>
+      <c r="E32" s="37">
+        <v>0</v>
+      </c>
+      <c r="F32" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="44">
-        <v>197789</v>
-      </c>
-      <c r="H29" s="43">
-        <v>1</v>
-      </c>
-      <c r="I29" s="42">
-        <v>0</v>
-      </c>
-      <c r="J29" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="46">
-        <v>211065</v>
-      </c>
-      <c r="E30" s="44">
-        <v>0</v>
-      </c>
-      <c r="F30" s="45">
+      <c r="G32" s="37">
+        <v>0</v>
+      </c>
+      <c r="H32" s="36">
+        <v>0</v>
+      </c>
+      <c r="I32" s="35">
+        <v>0</v>
+      </c>
+      <c r="J32" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="39">
+        <v>0</v>
+      </c>
+      <c r="E33" s="37">
+        <v>0</v>
+      </c>
+      <c r="F33" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="44">
-        <v>211065</v>
-      </c>
-      <c r="H30" s="43">
-        <v>1</v>
-      </c>
-      <c r="I30" s="42">
-        <v>0</v>
-      </c>
-      <c r="J30" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="47" t="s">
+      <c r="G33" s="37">
+        <v>0</v>
+      </c>
+      <c r="H33" s="36">
+        <v>0</v>
+      </c>
+      <c r="I33" s="35">
+        <v>0</v>
+      </c>
+      <c r="J33" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="39">
+        <v>0</v>
+      </c>
+      <c r="E34" s="37">
+        <v>0</v>
+      </c>
+      <c r="F34" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="37">
+        <v>0</v>
+      </c>
+      <c r="H34" s="36">
+        <v>0</v>
+      </c>
+      <c r="I34" s="35">
+        <v>0</v>
+      </c>
+      <c r="J34" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="39">
+        <v>0</v>
+      </c>
+      <c r="E35" s="37">
+        <v>0</v>
+      </c>
+      <c r="F35" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="37">
+        <v>0</v>
+      </c>
+      <c r="H35" s="36">
+        <v>0</v>
+      </c>
+      <c r="I35" s="35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="39">
+        <v>211337</v>
+      </c>
+      <c r="E36" s="37">
+        <v>0</v>
+      </c>
+      <c r="F36" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="37">
+        <v>211337</v>
+      </c>
+      <c r="H36" s="36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="35">
+        <v>0</v>
+      </c>
+      <c r="J36" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="46">
-        <v>0</v>
-      </c>
-      <c r="E31" s="44">
-        <v>0</v>
-      </c>
-      <c r="F31" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="44">
-        <v>0</v>
-      </c>
-      <c r="H31" s="43">
-        <v>0</v>
-      </c>
-      <c r="I31" s="42">
-        <v>0</v>
-      </c>
-      <c r="J31" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="46">
-        <v>0</v>
-      </c>
-      <c r="E32" s="44">
-        <v>0</v>
-      </c>
-      <c r="F32" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="44">
-        <v>0</v>
-      </c>
-      <c r="H32" s="43">
-        <v>0</v>
-      </c>
-      <c r="I32" s="42">
-        <v>0</v>
-      </c>
-      <c r="J32" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="46">
-        <v>0</v>
-      </c>
-      <c r="E33" s="44">
-        <v>0</v>
-      </c>
-      <c r="F33" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="44">
-        <v>0</v>
-      </c>
-      <c r="H33" s="43">
-        <v>0</v>
-      </c>
-      <c r="I33" s="42">
-        <v>0</v>
-      </c>
-      <c r="J33" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="46">
-        <v>0</v>
-      </c>
-      <c r="E34" s="44">
-        <v>0</v>
-      </c>
-      <c r="F34" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="44">
-        <v>0</v>
-      </c>
-      <c r="H34" s="43">
-        <v>0</v>
-      </c>
-      <c r="I34" s="42">
-        <v>0</v>
-      </c>
-      <c r="J34" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="46">
-        <v>0</v>
-      </c>
-      <c r="E35" s="44">
-        <v>0</v>
-      </c>
-      <c r="F35" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="44">
-        <v>0</v>
-      </c>
-      <c r="H35" s="43">
-        <v>0</v>
-      </c>
-      <c r="I35" s="42">
-        <v>0</v>
-      </c>
-      <c r="J35" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="46">
-        <v>211337</v>
-      </c>
-      <c r="E36" s="44">
-        <v>0</v>
-      </c>
-      <c r="F36" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="44">
-        <v>211337</v>
-      </c>
-      <c r="H36" s="43">
-        <v>1</v>
-      </c>
-      <c r="I36" s="42">
-        <v>0</v>
-      </c>
-      <c r="J36" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="46">
+      <c r="D37" s="39">
         <v>201087</v>
       </c>
-      <c r="E37" s="44">
-        <v>0</v>
-      </c>
-      <c r="F37" s="45">
+      <c r="E37" s="37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="38">
         <f t="shared" si="1"/>
         <v>92675</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="37">
         <v>293762</v>
       </c>
-      <c r="H37" s="43">
-        <v>1</v>
-      </c>
-      <c r="I37" s="42">
-        <v>0</v>
-      </c>
-      <c r="J37" s="42">
+      <c r="H37" s="36">
+        <v>1</v>
+      </c>
+      <c r="I37" s="35">
+        <v>0</v>
+      </c>
+      <c r="J37" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="C38" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0</v>
+      </c>
+      <c r="E38" s="37">
+        <v>0</v>
+      </c>
+      <c r="F38" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="37">
+        <v>0</v>
+      </c>
+      <c r="H38" s="36">
+        <v>0</v>
+      </c>
+      <c r="I38" s="35">
+        <v>0</v>
+      </c>
+      <c r="J38" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="46">
-        <v>0</v>
-      </c>
-      <c r="E38" s="44">
-        <v>0</v>
-      </c>
-      <c r="F38" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="44">
-        <v>0</v>
-      </c>
-      <c r="H38" s="43">
-        <v>0</v>
-      </c>
-      <c r="I38" s="42">
-        <v>0</v>
-      </c>
-      <c r="J38" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="48" t="s">
+      <c r="B39" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="46">
+      <c r="C39" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="39">
         <v>187894</v>
       </c>
-      <c r="E39" s="44">
-        <v>0</v>
-      </c>
-      <c r="F39" s="45">
+      <c r="E39" s="37">
+        <v>0</v>
+      </c>
+      <c r="F39" s="38">
         <f t="shared" si="1"/>
         <v>61637</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="37">
         <v>249531</v>
       </c>
-      <c r="H39" s="43">
-        <v>1</v>
-      </c>
-      <c r="I39" s="42">
-        <v>0</v>
-      </c>
-      <c r="J39" s="42">
+      <c r="H39" s="36">
+        <v>1</v>
+      </c>
+      <c r="I39" s="35">
+        <v>0</v>
+      </c>
+      <c r="J39" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="46">
+      <c r="C40" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="39">
         <v>202536</v>
       </c>
-      <c r="E40" s="44">
-        <v>0</v>
-      </c>
-      <c r="F40" s="45">
+      <c r="E40" s="37">
+        <v>0</v>
+      </c>
+      <c r="F40" s="38">
         <f t="shared" si="1"/>
         <v>57680</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="37">
         <v>260216</v>
       </c>
-      <c r="H40" s="43">
-        <v>1</v>
-      </c>
-      <c r="I40" s="42">
-        <v>0</v>
-      </c>
-      <c r="J40" s="42">
+      <c r="H40" s="36">
+        <v>1</v>
+      </c>
+      <c r="I40" s="35">
+        <v>0</v>
+      </c>
+      <c r="J40" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="46">
+      <c r="C41" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="39">
         <v>243553</v>
       </c>
-      <c r="E41" s="44">
-        <v>0</v>
-      </c>
-      <c r="F41" s="45">
+      <c r="E41" s="37">
+        <v>0</v>
+      </c>
+      <c r="F41" s="38">
         <f t="shared" si="1"/>
         <v>63160</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="37">
         <v>306713</v>
       </c>
-      <c r="H41" s="43">
-        <v>1</v>
-      </c>
-      <c r="I41" s="42">
-        <v>0</v>
-      </c>
-      <c r="J41" s="42">
+      <c r="H41" s="36">
+        <v>1</v>
+      </c>
+      <c r="I41" s="35">
+        <v>0</v>
+      </c>
+      <c r="J41" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="C42" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="39">
+        <v>0</v>
+      </c>
+      <c r="E42" s="37">
+        <v>0</v>
+      </c>
+      <c r="F42" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="37">
+        <v>0</v>
+      </c>
+      <c r="H42" s="36">
+        <v>0</v>
+      </c>
+      <c r="I42" s="35">
+        <v>0</v>
+      </c>
+      <c r="J42" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="46">
-        <v>0</v>
-      </c>
-      <c r="E42" s="44">
-        <v>0</v>
-      </c>
-      <c r="F42" s="45">
+      <c r="B43" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="39">
+        <v>0</v>
+      </c>
+      <c r="E43" s="37">
+        <v>0</v>
+      </c>
+      <c r="F43" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="44">
-        <v>0</v>
-      </c>
-      <c r="H42" s="43">
-        <v>0</v>
-      </c>
-      <c r="I42" s="42">
-        <v>0</v>
-      </c>
-      <c r="J42" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="48" t="s">
+      <c r="G43" s="37">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36">
+        <v>0</v>
+      </c>
+      <c r="I43" s="35">
+        <v>0</v>
+      </c>
+      <c r="J43" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="46">
-        <v>0</v>
-      </c>
-      <c r="E43" s="44">
-        <v>0</v>
-      </c>
-      <c r="F43" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="44">
-        <v>0</v>
-      </c>
-      <c r="H43" s="43">
-        <v>0</v>
-      </c>
-      <c r="I43" s="42">
-        <v>0</v>
-      </c>
-      <c r="J43" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
+      <c r="B44" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="46">
-        <v>0</v>
-      </c>
-      <c r="E44" s="44">
+      <c r="C44" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="39">
+        <v>0</v>
+      </c>
+      <c r="E44" s="37">
         <v>261936</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="38">
         <f t="shared" si="1"/>
         <v>74619</v>
       </c>
-      <c r="G44" s="44">
+      <c r="G44" s="37">
         <v>336555</v>
       </c>
-      <c r="H44" s="43">
-        <v>0</v>
-      </c>
-      <c r="I44" s="42">
-        <v>1</v>
-      </c>
-      <c r="J44" s="42">
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
+      <c r="I44" s="35">
+        <v>1</v>
+      </c>
+      <c r="J44" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="46">
-        <v>0</v>
-      </c>
-      <c r="E45" s="44">
+      <c r="C45" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="39">
+        <v>0</v>
+      </c>
+      <c r="E45" s="37">
         <v>259257</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="38">
         <f t="shared" si="1"/>
         <v>83479</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="37">
         <v>342736</v>
       </c>
-      <c r="H45" s="43">
-        <v>0</v>
-      </c>
-      <c r="I45" s="42">
-        <v>1</v>
-      </c>
-      <c r="J45" s="42">
+      <c r="H45" s="36">
+        <v>0</v>
+      </c>
+      <c r="I45" s="35">
+        <v>1</v>
+      </c>
+      <c r="J45" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="46">
-        <v>0</v>
-      </c>
-      <c r="E46" s="44">
+      <c r="C46" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="39">
+        <v>0</v>
+      </c>
+      <c r="E46" s="37">
         <v>210794</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="38">
         <f t="shared" si="1"/>
         <v>74340</v>
       </c>
-      <c r="G46" s="44">
+      <c r="G46" s="37">
         <v>285134</v>
       </c>
-      <c r="H46" s="43">
-        <v>0</v>
-      </c>
-      <c r="I46" s="42">
-        <v>1</v>
-      </c>
-      <c r="J46" s="42">
+      <c r="H46" s="36">
+        <v>0</v>
+      </c>
+      <c r="I46" s="35">
+        <v>1</v>
+      </c>
+      <c r="J46" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="39">
+        <v>0</v>
+      </c>
+      <c r="E47" s="37">
+        <v>0</v>
+      </c>
+      <c r="F47" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="37">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36">
+        <v>0</v>
+      </c>
+      <c r="I47" s="35">
+        <v>0</v>
+      </c>
+      <c r="J47" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="47" t="s">
+      <c r="B48" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="39">
+        <v>0</v>
+      </c>
+      <c r="E48" s="37">
+        <v>0</v>
+      </c>
+      <c r="F48" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="37">
+        <v>0</v>
+      </c>
+      <c r="H48" s="36">
+        <v>0</v>
+      </c>
+      <c r="I48" s="35">
+        <v>0</v>
+      </c>
+      <c r="J48" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="46">
-        <v>0</v>
-      </c>
-      <c r="E47" s="44">
-        <v>0</v>
-      </c>
-      <c r="F47" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="44">
-        <v>0</v>
-      </c>
-      <c r="H47" s="43">
-        <v>0</v>
-      </c>
-      <c r="I47" s="42">
-        <v>0</v>
-      </c>
-      <c r="J47" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="46">
-        <v>0</v>
-      </c>
-      <c r="E48" s="44">
-        <v>0</v>
-      </c>
-      <c r="F48" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="44">
-        <v>0</v>
-      </c>
-      <c r="H48" s="43">
-        <v>0</v>
-      </c>
-      <c r="I48" s="42">
-        <v>0</v>
-      </c>
-      <c r="J48" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="46">
+      <c r="D49" s="39">
         <v>234717</v>
       </c>
-      <c r="E49" s="44">
-        <v>0</v>
-      </c>
-      <c r="F49" s="45">
+      <c r="E49" s="37">
+        <v>0</v>
+      </c>
+      <c r="F49" s="38">
         <f t="shared" si="1"/>
         <v>58605</v>
       </c>
-      <c r="G49" s="44">
+      <c r="G49" s="37">
         <v>293322</v>
       </c>
-      <c r="H49" s="43">
-        <v>1</v>
-      </c>
-      <c r="I49" s="42">
-        <v>0</v>
-      </c>
-      <c r="J49" s="42">
+      <c r="H49" s="36">
+        <v>1</v>
+      </c>
+      <c r="I49" s="35">
+        <v>0</v>
+      </c>
+      <c r="J49" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="C50" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="39">
+        <v>0</v>
+      </c>
+      <c r="E50" s="37">
+        <v>0</v>
+      </c>
+      <c r="F50" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="37">
+        <v>0</v>
+      </c>
+      <c r="H50" s="36">
+        <v>0</v>
+      </c>
+      <c r="I50" s="35">
+        <v>0</v>
+      </c>
+      <c r="J50" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="46">
-        <v>0</v>
-      </c>
-      <c r="E50" s="44">
-        <v>0</v>
-      </c>
-      <c r="F50" s="45">
+      <c r="B51" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="39">
+        <v>0</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0</v>
+      </c>
+      <c r="F51" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G50" s="44">
-        <v>0</v>
-      </c>
-      <c r="H50" s="43">
-        <v>0</v>
-      </c>
-      <c r="I50" s="42">
-        <v>0</v>
-      </c>
-      <c r="J50" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="48" t="s">
+      <c r="G51" s="37">
+        <v>0</v>
+      </c>
+      <c r="H51" s="36">
+        <v>0</v>
+      </c>
+      <c r="I51" s="35">
+        <v>0</v>
+      </c>
+      <c r="J51" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="46">
-        <v>0</v>
-      </c>
-      <c r="E51" s="44">
-        <v>0</v>
-      </c>
-      <c r="F51" s="45">
+      <c r="B52" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="39">
+        <v>0</v>
+      </c>
+      <c r="E52" s="37">
+        <v>0</v>
+      </c>
+      <c r="F52" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G51" s="44">
-        <v>0</v>
-      </c>
-      <c r="H51" s="43">
-        <v>0</v>
-      </c>
-      <c r="I51" s="42">
-        <v>0</v>
-      </c>
-      <c r="J51" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="48" t="s">
+      <c r="G52" s="37">
+        <v>0</v>
+      </c>
+      <c r="H52" s="36">
+        <v>0</v>
+      </c>
+      <c r="I52" s="35">
+        <v>0</v>
+      </c>
+      <c r="J52" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="46">
-        <v>0</v>
-      </c>
-      <c r="E52" s="44">
-        <v>0</v>
-      </c>
-      <c r="F52" s="45">
+      <c r="B53" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="39">
+        <v>0</v>
+      </c>
+      <c r="E53" s="37">
+        <v>0</v>
+      </c>
+      <c r="F53" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G52" s="44">
-        <v>0</v>
-      </c>
-      <c r="H52" s="43">
-        <v>0</v>
-      </c>
-      <c r="I52" s="42">
-        <v>0</v>
-      </c>
-      <c r="J52" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="48" t="s">
+      <c r="G53" s="37">
+        <v>0</v>
+      </c>
+      <c r="H53" s="36">
+        <v>0</v>
+      </c>
+      <c r="I53" s="35">
+        <v>0</v>
+      </c>
+      <c r="J53" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="46">
-        <v>0</v>
-      </c>
-      <c r="E53" s="44">
-        <v>0</v>
-      </c>
-      <c r="F53" s="45">
+      <c r="B54" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="39">
+        <v>0</v>
+      </c>
+      <c r="E54" s="37">
+        <v>0</v>
+      </c>
+      <c r="F54" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G53" s="44">
-        <v>0</v>
-      </c>
-      <c r="H53" s="43">
-        <v>0</v>
-      </c>
-      <c r="I53" s="42">
-        <v>0</v>
-      </c>
-      <c r="J53" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="48" t="s">
+      <c r="G54" s="37">
+        <v>0</v>
+      </c>
+      <c r="H54" s="36">
+        <v>0</v>
+      </c>
+      <c r="I54" s="35">
+        <v>0</v>
+      </c>
+      <c r="J54" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="46">
-        <v>0</v>
-      </c>
-      <c r="E54" s="44">
-        <v>0</v>
-      </c>
-      <c r="F54" s="45">
+      <c r="B55" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="39">
+        <v>0</v>
+      </c>
+      <c r="E55" s="37">
+        <v>0</v>
+      </c>
+      <c r="F55" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G54" s="44">
-        <v>0</v>
-      </c>
-      <c r="H54" s="43">
-        <v>0</v>
-      </c>
-      <c r="I54" s="42">
-        <v>0</v>
-      </c>
-      <c r="J54" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="48" t="s">
+      <c r="G55" s="37">
+        <v>0</v>
+      </c>
+      <c r="H55" s="36">
+        <v>0</v>
+      </c>
+      <c r="I55" s="35">
+        <v>0</v>
+      </c>
+      <c r="J55" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="46">
-        <v>0</v>
-      </c>
-      <c r="E55" s="44">
-        <v>0</v>
-      </c>
-      <c r="F55" s="45">
+      <c r="B56" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="39">
+        <v>0</v>
+      </c>
+      <c r="E56" s="37">
+        <v>0</v>
+      </c>
+      <c r="F56" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G55" s="44">
-        <v>0</v>
-      </c>
-      <c r="H55" s="43">
-        <v>0</v>
-      </c>
-      <c r="I55" s="42">
-        <v>0</v>
-      </c>
-      <c r="J55" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="48" t="s">
+      <c r="G56" s="37">
+        <v>0</v>
+      </c>
+      <c r="H56" s="36">
+        <v>0</v>
+      </c>
+      <c r="I56" s="35">
+        <v>0</v>
+      </c>
+      <c r="J56" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="46">
-        <v>0</v>
-      </c>
-      <c r="E56" s="44">
-        <v>0</v>
-      </c>
-      <c r="F56" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="44">
-        <v>0</v>
-      </c>
-      <c r="H56" s="43">
-        <v>0</v>
-      </c>
-      <c r="I56" s="42">
-        <v>0</v>
-      </c>
-      <c r="J56" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
+      <c r="B57" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="55">
-        <v>0</v>
-      </c>
-      <c r="E57" s="53">
+      <c r="C57" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="48">
+        <v>0</v>
+      </c>
+      <c r="E57" s="46">
         <v>132456</v>
       </c>
-      <c r="F57" s="54">
+      <c r="F57" s="47">
         <f t="shared" si="1"/>
         <v>46369</v>
       </c>
-      <c r="G57" s="53">
+      <c r="G57" s="46">
         <v>178825</v>
       </c>
-      <c r="H57" s="52">
-        <v>0</v>
-      </c>
-      <c r="I57" s="51">
-        <v>1</v>
-      </c>
-      <c r="J57" s="51">
-        <v>0</v>
-      </c>
-      <c r="K57" s="50" t="s">
-        <v>123</v>
+      <c r="H57" s="45">
+        <v>0</v>
+      </c>
+      <c r="I57" s="44">
+        <v>1</v>
+      </c>
+      <c r="J57" s="44">
+        <v>0</v>
+      </c>
+      <c r="K57" s="43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="39">
+        <v>0</v>
+      </c>
+      <c r="E58" s="37">
+        <v>0</v>
+      </c>
+      <c r="F58" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="37">
+        <v>0</v>
+      </c>
+      <c r="H58" s="36">
+        <v>0</v>
+      </c>
+      <c r="I58" s="35">
+        <v>0</v>
+      </c>
+      <c r="J58" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="46">
-        <v>0</v>
-      </c>
-      <c r="E58" s="44">
-        <v>0</v>
-      </c>
-      <c r="F58" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="44">
-        <v>0</v>
-      </c>
-      <c r="H58" s="43">
-        <v>0</v>
-      </c>
-      <c r="I58" s="42">
-        <v>0</v>
-      </c>
-      <c r="J58" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="48" t="s">
+      <c r="B59" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="C59" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="39">
+        <v>0</v>
+      </c>
+      <c r="E59" s="37">
+        <v>0</v>
+      </c>
+      <c r="F59" s="38">
+        <f t="shared" ref="F59:F82" si="2">G59-SUM(D59:E59)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="37">
+        <v>0</v>
+      </c>
+      <c r="H59" s="36">
+        <v>0</v>
+      </c>
+      <c r="I59" s="35">
+        <v>0</v>
+      </c>
+      <c r="J59" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="46">
-        <v>0</v>
-      </c>
-      <c r="E59" s="44">
-        <v>0</v>
-      </c>
-      <c r="F59" s="45">
-        <f t="shared" ref="F59:F82" si="2">G59-SUM(D59:E59)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="44">
-        <v>0</v>
-      </c>
-      <c r="H59" s="43">
-        <v>0</v>
-      </c>
-      <c r="I59" s="42">
-        <v>0</v>
-      </c>
-      <c r="J59" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="46">
+      <c r="C60" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="39">
         <v>246378</v>
       </c>
-      <c r="E60" s="44">
-        <v>0</v>
-      </c>
-      <c r="F60" s="45">
+      <c r="E60" s="37">
+        <v>0</v>
+      </c>
+      <c r="F60" s="38">
         <f t="shared" si="2"/>
         <v>1938</v>
       </c>
-      <c r="G60" s="44">
+      <c r="G60" s="37">
         <v>248316</v>
       </c>
-      <c r="H60" s="43">
-        <v>1</v>
-      </c>
-      <c r="I60" s="42">
-        <v>0</v>
-      </c>
-      <c r="J60" s="42">
+      <c r="H60" s="36">
+        <v>1</v>
+      </c>
+      <c r="I60" s="35">
+        <v>0</v>
+      </c>
+      <c r="J60" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="39">
+        <v>0</v>
+      </c>
+      <c r="E61" s="37">
+        <v>258359</v>
+      </c>
+      <c r="F61" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="37">
+        <v>258359</v>
+      </c>
+      <c r="H61" s="36">
+        <v>0</v>
+      </c>
+      <c r="I61" s="35">
+        <v>1</v>
+      </c>
+      <c r="J61" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="46">
-        <v>0</v>
-      </c>
-      <c r="E61" s="44">
-        <v>258359</v>
-      </c>
-      <c r="F61" s="45">
+      <c r="B62" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="39">
+        <v>0</v>
+      </c>
+      <c r="E62" s="37">
+        <v>0</v>
+      </c>
+      <c r="F62" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G61" s="44">
-        <v>258359</v>
-      </c>
-      <c r="H61" s="43">
-        <v>0</v>
-      </c>
-      <c r="I61" s="42">
-        <v>1</v>
-      </c>
-      <c r="J61" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="48" t="s">
+      <c r="G62" s="37">
+        <v>0</v>
+      </c>
+      <c r="H62" s="36">
+        <v>0</v>
+      </c>
+      <c r="I62" s="35">
+        <v>0</v>
+      </c>
+      <c r="J62" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="46">
-        <v>0</v>
-      </c>
-      <c r="E62" s="44">
-        <v>0</v>
-      </c>
-      <c r="F62" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="44">
-        <v>0</v>
-      </c>
-      <c r="H62" s="43">
-        <v>0</v>
-      </c>
-      <c r="I62" s="42">
-        <v>0</v>
-      </c>
-      <c r="J62" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="48" t="s">
+      <c r="B63" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="46">
+      <c r="C63" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="39">
         <v>228043</v>
       </c>
-      <c r="E63" s="44">
-        <v>0</v>
-      </c>
-      <c r="F63" s="45">
+      <c r="E63" s="37">
+        <v>0</v>
+      </c>
+      <c r="F63" s="38">
         <f t="shared" si="2"/>
         <v>104212</v>
       </c>
-      <c r="G63" s="44">
+      <c r="G63" s="37">
         <v>332255</v>
       </c>
-      <c r="H63" s="43">
-        <v>1</v>
-      </c>
-      <c r="I63" s="42">
-        <v>0</v>
-      </c>
-      <c r="J63" s="42">
+      <c r="H63" s="36">
+        <v>1</v>
+      </c>
+      <c r="I63" s="35">
+        <v>0</v>
+      </c>
+      <c r="J63" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="46">
-        <v>0</v>
-      </c>
-      <c r="E64" s="44">
+      <c r="C64" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="39">
+        <v>0</v>
+      </c>
+      <c r="E64" s="37">
         <v>212866</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="38">
         <f t="shared" si="2"/>
         <v>147222</v>
       </c>
-      <c r="G64" s="44">
+      <c r="G64" s="37">
         <v>360088</v>
       </c>
-      <c r="H64" s="43">
-        <v>0</v>
-      </c>
-      <c r="I64" s="42">
-        <v>1</v>
-      </c>
-      <c r="J64" s="42">
+      <c r="H64" s="36">
+        <v>0</v>
+      </c>
+      <c r="I64" s="35">
+        <v>1</v>
+      </c>
+      <c r="J64" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="39">
+        <v>0</v>
+      </c>
+      <c r="E65" s="37">
+        <v>0</v>
+      </c>
+      <c r="F65" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="37">
+        <v>0</v>
+      </c>
+      <c r="H65" s="36">
+        <v>0</v>
+      </c>
+      <c r="I65" s="35">
+        <v>0</v>
+      </c>
+      <c r="J65" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="46">
-        <v>0</v>
-      </c>
-      <c r="E65" s="44">
-        <v>0</v>
-      </c>
-      <c r="F65" s="45">
+      <c r="B66" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="39">
+        <v>0</v>
+      </c>
+      <c r="E66" s="37">
+        <v>0</v>
+      </c>
+      <c r="F66" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G65" s="44">
-        <v>0</v>
-      </c>
-      <c r="H65" s="43">
-        <v>0</v>
-      </c>
-      <c r="I65" s="42">
-        <v>0</v>
-      </c>
-      <c r="J65" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="48" t="s">
+      <c r="G66" s="37">
+        <v>0</v>
+      </c>
+      <c r="H66" s="36">
+        <v>0</v>
+      </c>
+      <c r="I66" s="35">
+        <v>0</v>
+      </c>
+      <c r="J66" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="46">
-        <v>0</v>
-      </c>
-      <c r="E66" s="44">
-        <v>0</v>
-      </c>
-      <c r="F66" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="44">
-        <v>0</v>
-      </c>
-      <c r="H66" s="43">
-        <v>0</v>
-      </c>
-      <c r="I66" s="42">
-        <v>0</v>
-      </c>
-      <c r="J66" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
+      <c r="B67" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="46">
+      <c r="C67" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="39">
         <v>196116</v>
       </c>
-      <c r="E67" s="44">
-        <v>0</v>
-      </c>
-      <c r="F67" s="45">
+      <c r="E67" s="37">
+        <v>0</v>
+      </c>
+      <c r="F67" s="38">
         <f t="shared" si="2"/>
         <v>7602</v>
       </c>
-      <c r="G67" s="44">
+      <c r="G67" s="37">
         <v>203718</v>
       </c>
-      <c r="H67" s="43">
-        <v>1</v>
-      </c>
-      <c r="I67" s="42">
-        <v>0</v>
-      </c>
-      <c r="J67" s="42">
+      <c r="H67" s="36">
+        <v>1</v>
+      </c>
+      <c r="I67" s="35">
+        <v>0</v>
+      </c>
+      <c r="J67" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" s="46">
-        <v>0</v>
-      </c>
-      <c r="E68" s="44">
+      <c r="C68" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="39">
+        <v>0</v>
+      </c>
+      <c r="E68" s="37">
         <v>218717</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="38">
         <f t="shared" si="2"/>
         <v>14898</v>
       </c>
-      <c r="G68" s="44">
+      <c r="G68" s="37">
         <v>233615</v>
       </c>
-      <c r="H68" s="43">
-        <v>0</v>
-      </c>
-      <c r="I68" s="42">
-        <v>1</v>
-      </c>
-      <c r="J68" s="42">
+      <c r="H68" s="36">
+        <v>0</v>
+      </c>
+      <c r="I68" s="35">
+        <v>1</v>
+      </c>
+      <c r="J68" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="C69" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="39">
+        <v>0</v>
+      </c>
+      <c r="E69" s="37">
+        <v>0</v>
+      </c>
+      <c r="F69" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="37">
+        <v>0</v>
+      </c>
+      <c r="H69" s="36">
+        <v>0</v>
+      </c>
+      <c r="I69" s="35">
+        <v>0</v>
+      </c>
+      <c r="J69" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="46">
-        <v>0</v>
-      </c>
-      <c r="E69" s="44">
-        <v>0</v>
-      </c>
-      <c r="F69" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="44">
-        <v>0</v>
-      </c>
-      <c r="H69" s="43">
-        <v>0</v>
-      </c>
-      <c r="I69" s="42">
-        <v>0</v>
-      </c>
-      <c r="J69" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="48" t="s">
+      <c r="B70" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="46">
+      <c r="C70" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="39">
         <v>184383</v>
       </c>
-      <c r="E70" s="44">
-        <v>0</v>
-      </c>
-      <c r="F70" s="45">
+      <c r="E70" s="37">
+        <v>0</v>
+      </c>
+      <c r="F70" s="38">
         <f t="shared" si="2"/>
         <v>56858</v>
       </c>
-      <c r="G70" s="44">
+      <c r="G70" s="37">
         <v>241241</v>
       </c>
-      <c r="H70" s="43">
-        <v>1</v>
-      </c>
-      <c r="I70" s="42">
-        <v>0</v>
-      </c>
-      <c r="J70" s="42">
+      <c r="H70" s="36">
+        <v>1</v>
+      </c>
+      <c r="I70" s="35">
+        <v>0</v>
+      </c>
+      <c r="J70" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="47" t="s">
+      <c r="A71" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="46">
+      <c r="C71" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="39">
         <v>187180</v>
       </c>
-      <c r="E71" s="44">
-        <v>0</v>
-      </c>
-      <c r="F71" s="45">
+      <c r="E71" s="37">
+        <v>0</v>
+      </c>
+      <c r="F71" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="44">
+      <c r="G71" s="37">
         <v>187180</v>
       </c>
-      <c r="H71" s="43">
-        <v>1</v>
-      </c>
-      <c r="I71" s="42">
-        <v>0</v>
-      </c>
-      <c r="J71" s="42">
+      <c r="H71" s="36">
+        <v>1</v>
+      </c>
+      <c r="I71" s="35">
+        <v>0</v>
+      </c>
+      <c r="J71" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="47" t="s">
+      <c r="A72" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="46">
+      <c r="C72" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="39">
         <v>187775</v>
       </c>
-      <c r="E72" s="44">
-        <v>0</v>
-      </c>
-      <c r="F72" s="45">
+      <c r="E72" s="37">
+        <v>0</v>
+      </c>
+      <c r="F72" s="38">
         <f t="shared" si="2"/>
         <v>18613</v>
       </c>
-      <c r="G72" s="44">
+      <c r="G72" s="37">
         <v>206388</v>
       </c>
-      <c r="H72" s="43">
-        <v>1</v>
-      </c>
-      <c r="I72" s="42">
-        <v>0</v>
-      </c>
-      <c r="J72" s="42">
+      <c r="H72" s="36">
+        <v>1</v>
+      </c>
+      <c r="I72" s="35">
+        <v>0</v>
+      </c>
+      <c r="J72" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="47" t="s">
+      <c r="A73" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D73" s="46">
+      <c r="C73" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="39">
         <v>143284</v>
       </c>
-      <c r="E73" s="44">
-        <v>0</v>
-      </c>
-      <c r="F73" s="45">
+      <c r="E73" s="37">
+        <v>0</v>
+      </c>
+      <c r="F73" s="38">
         <f t="shared" si="2"/>
         <v>35978</v>
       </c>
-      <c r="G73" s="44">
+      <c r="G73" s="37">
         <v>179262</v>
       </c>
-      <c r="H73" s="43">
-        <v>1</v>
-      </c>
-      <c r="I73" s="42">
-        <v>0</v>
-      </c>
-      <c r="J73" s="42">
+      <c r="H73" s="36">
+        <v>1</v>
+      </c>
+      <c r="I73" s="35">
+        <v>0</v>
+      </c>
+      <c r="J73" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="47" t="s">
+      <c r="A74" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="46">
+      <c r="C74" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="39">
         <v>163239</v>
       </c>
-      <c r="E74" s="44">
-        <v>0</v>
-      </c>
-      <c r="F74" s="45">
+      <c r="E74" s="37">
+        <v>0</v>
+      </c>
+      <c r="F74" s="38">
         <f t="shared" si="2"/>
         <v>28824</v>
       </c>
-      <c r="G74" s="44">
+      <c r="G74" s="37">
         <v>192063</v>
       </c>
-      <c r="H74" s="43">
-        <v>1</v>
-      </c>
-      <c r="I74" s="42">
-        <v>0</v>
-      </c>
-      <c r="J74" s="42">
+      <c r="H74" s="36">
+        <v>1</v>
+      </c>
+      <c r="I74" s="35">
+        <v>0</v>
+      </c>
+      <c r="J74" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="47" t="s">
+      <c r="A75" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="46">
-        <v>0</v>
-      </c>
-      <c r="E75" s="44">
+      <c r="C75" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="39">
+        <v>0</v>
+      </c>
+      <c r="E75" s="37">
         <v>86053</v>
       </c>
-      <c r="F75" s="45">
+      <c r="F75" s="38">
         <f t="shared" si="2"/>
         <v>9558</v>
       </c>
-      <c r="G75" s="44">
+      <c r="G75" s="37">
         <v>95611</v>
       </c>
-      <c r="H75" s="43">
-        <v>0</v>
-      </c>
-      <c r="I75" s="42">
-        <v>1</v>
-      </c>
-      <c r="J75" s="42">
+      <c r="H75" s="36">
+        <v>0</v>
+      </c>
+      <c r="I75" s="35">
+        <v>1</v>
+      </c>
+      <c r="J75" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="48" t="s">
+      <c r="C76" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="39">
+        <v>0</v>
+      </c>
+      <c r="E76" s="37">
+        <v>0</v>
+      </c>
+      <c r="F76" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="37">
+        <v>0</v>
+      </c>
+      <c r="H76" s="36">
+        <v>0</v>
+      </c>
+      <c r="I76" s="35">
+        <v>0</v>
+      </c>
+      <c r="J76" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="46">
-        <v>0</v>
-      </c>
-      <c r="E76" s="44">
-        <v>0</v>
-      </c>
-      <c r="F76" s="45">
+      <c r="B77" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="39">
+        <v>0</v>
+      </c>
+      <c r="E77" s="37">
+        <v>0</v>
+      </c>
+      <c r="F77" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76" s="44">
-        <v>0</v>
-      </c>
-      <c r="H76" s="43">
-        <v>0</v>
-      </c>
-      <c r="I76" s="42">
-        <v>0</v>
-      </c>
-      <c r="J76" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="48" t="s">
+      <c r="G77" s="37">
+        <v>0</v>
+      </c>
+      <c r="H77" s="36">
+        <v>0</v>
+      </c>
+      <c r="I77" s="35">
+        <v>0</v>
+      </c>
+      <c r="J77" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="46">
-        <v>0</v>
-      </c>
-      <c r="E77" s="44">
-        <v>0</v>
-      </c>
-      <c r="F77" s="45">
+      <c r="B78" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="39">
+        <v>0</v>
+      </c>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
+      <c r="F78" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="44">
-        <v>0</v>
-      </c>
-      <c r="H77" s="43">
-        <v>0</v>
-      </c>
-      <c r="I77" s="42">
-        <v>0</v>
-      </c>
-      <c r="J77" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="48" t="s">
+      <c r="G78" s="37">
+        <v>0</v>
+      </c>
+      <c r="H78" s="36">
+        <v>0</v>
+      </c>
+      <c r="I78" s="35">
+        <v>0</v>
+      </c>
+      <c r="J78" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B78" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="46">
-        <v>0</v>
-      </c>
-      <c r="E78" s="44">
-        <v>0</v>
-      </c>
-      <c r="F78" s="45">
+      <c r="B79" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="39">
+        <v>0</v>
+      </c>
+      <c r="E79" s="37">
+        <v>0</v>
+      </c>
+      <c r="F79" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="44">
-        <v>0</v>
-      </c>
-      <c r="H78" s="43">
-        <v>0</v>
-      </c>
-      <c r="I78" s="42">
-        <v>0</v>
-      </c>
-      <c r="J78" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="48" t="s">
+      <c r="G79" s="37">
+        <v>0</v>
+      </c>
+      <c r="H79" s="36">
+        <v>0</v>
+      </c>
+      <c r="I79" s="35">
+        <v>0</v>
+      </c>
+      <c r="J79" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D79" s="46">
-        <v>0</v>
-      </c>
-      <c r="E79" s="44">
-        <v>0</v>
-      </c>
-      <c r="F79" s="45">
+      <c r="B80" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="39">
+        <v>0</v>
+      </c>
+      <c r="E80" s="37">
+        <v>0</v>
+      </c>
+      <c r="F80" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G79" s="44">
-        <v>0</v>
-      </c>
-      <c r="H79" s="43">
-        <v>0</v>
-      </c>
-      <c r="I79" s="42">
-        <v>0</v>
-      </c>
-      <c r="J79" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="48" t="s">
+      <c r="G80" s="37">
+        <v>0</v>
+      </c>
+      <c r="H80" s="36">
+        <v>0</v>
+      </c>
+      <c r="I80" s="35">
+        <v>0</v>
+      </c>
+      <c r="J80" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80" s="46">
-        <v>0</v>
-      </c>
-      <c r="E80" s="44">
-        <v>0</v>
-      </c>
-      <c r="F80" s="45">
+      <c r="B81" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="39">
+        <v>0</v>
+      </c>
+      <c r="E81" s="37">
+        <v>0</v>
+      </c>
+      <c r="F81" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="44">
-        <v>0</v>
-      </c>
-      <c r="H80" s="43">
-        <v>0</v>
-      </c>
-      <c r="I80" s="42">
-        <v>0</v>
-      </c>
-      <c r="J80" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="48" t="s">
+      <c r="G81" s="37">
+        <v>0</v>
+      </c>
+      <c r="H81" s="36">
+        <v>0</v>
+      </c>
+      <c r="I81" s="35">
+        <v>0</v>
+      </c>
+      <c r="J81" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" s="46">
-        <v>0</v>
-      </c>
-      <c r="E81" s="44">
-        <v>0</v>
-      </c>
-      <c r="F81" s="45">
+      <c r="B82" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="39">
+        <v>0</v>
+      </c>
+      <c r="E82" s="37">
+        <v>0</v>
+      </c>
+      <c r="F82" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="44">
-        <v>0</v>
-      </c>
-      <c r="H81" s="43">
-        <v>0</v>
-      </c>
-      <c r="I81" s="42">
-        <v>0</v>
-      </c>
-      <c r="J81" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" s="46">
-        <v>0</v>
-      </c>
-      <c r="E82" s="44">
-        <v>0</v>
-      </c>
-      <c r="F82" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="44">
-        <v>0</v>
-      </c>
-      <c r="H82" s="43">
-        <v>0</v>
-      </c>
-      <c r="I82" s="42">
-        <v>0</v>
-      </c>
-      <c r="J82" s="42">
+      <c r="G82" s="37">
+        <v>0</v>
+      </c>
+      <c r="H82" s="36">
+        <v>0</v>
+      </c>
+      <c r="I82" s="35">
+        <v>0</v>
+      </c>
+      <c r="J82" s="35">
         <v>0</v>
       </c>
     </row>
@@ -7917,23 +7887,23 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="41">
+      <c r="D84" s="34">
         <f t="shared" ref="D84:J84" si="3">SUM(D3:D82)</f>
         <v>4931714</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="33">
         <f t="shared" si="3"/>
         <v>3828410</v>
       </c>
-      <c r="F84" s="40">
+      <c r="F84" s="33">
         <f t="shared" si="3"/>
         <v>1731274</v>
       </c>
-      <c r="G84" s="40">
+      <c r="G84" s="33">
         <f t="shared" si="3"/>
         <v>10491398</v>
       </c>
-      <c r="H84" s="32">
+      <c r="H84" s="25">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -7945,23 +7915,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K84" s="32"/>
+      <c r="K84" s="25"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C86" s="39"/>
+      <c r="C86" s="32"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C87" s="39"/>
+      <c r="C87" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A2:J82"/>
+  <autoFilter ref="A2:J82" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -7979,61 +7949,61 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>105</v>
+      <c r="A3" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>200676</v>
       </c>
-      <c r="D4" s="71">
-        <v>1</v>
-      </c>
-      <c r="E4" s="71">
-        <v>0</v>
-      </c>
-      <c r="F4" s="71"/>
+      <c r="D4" s="64">
+        <v>1</v>
+      </c>
+      <c r="E4" s="64">
+        <v>0</v>
+      </c>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="71">
-        <v>0</v>
-      </c>
-      <c r="E5" s="71">
-        <v>0</v>
-      </c>
-      <c r="F5" s="71"/>
+      <c r="D5" s="64">
+        <v>0</v>
+      </c>
+      <c r="E5" s="64">
+        <v>0</v>
+      </c>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -8041,107 +8011,107 @@
       <c r="C6" s="3">
         <v>127827</v>
       </c>
-      <c r="D6" s="71">
-        <v>0</v>
-      </c>
-      <c r="E6" s="71">
-        <v>1</v>
-      </c>
-      <c r="F6" s="71"/>
+      <c r="D6" s="64">
+        <v>0</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1</v>
+      </c>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>245660</v>
       </c>
-      <c r="D7" s="71">
-        <v>1</v>
-      </c>
-      <c r="E7" s="71">
-        <v>0</v>
-      </c>
-      <c r="F7" s="71"/>
+      <c r="D7" s="64">
+        <v>1</v>
+      </c>
+      <c r="E7" s="64">
+        <v>0</v>
+      </c>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>2428159</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="64">
         <v>3</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="64">
         <v>9</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>307231</v>
       </c>
-      <c r="D9" s="71">
-        <v>1</v>
-      </c>
-      <c r="E9" s="71">
-        <v>0</v>
-      </c>
-      <c r="F9" s="71"/>
+      <c r="D9" s="64">
+        <v>1</v>
+      </c>
+      <c r="E9" s="64">
+        <v>0</v>
+      </c>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="71">
-        <v>0</v>
-      </c>
-      <c r="E10" s="71">
-        <v>0</v>
-      </c>
-      <c r="F10" s="71"/>
+      <c r="D10" s="64">
+        <v>0</v>
+      </c>
+      <c r="E10" s="64">
+        <v>0</v>
+      </c>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="71">
-        <v>0</v>
-      </c>
-      <c r="E11" s="71">
-        <v>0</v>
-      </c>
-      <c r="F11" s="71"/>
+      <c r="D11" s="64">
+        <v>0</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -8149,71 +8119,71 @@
       <c r="C12" s="3">
         <v>1044384</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="64">
         <v>3</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="64">
         <v>3</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="3">
         <v>641234</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="64">
         <v>3</v>
       </c>
-      <c r="E13" s="71">
-        <v>0</v>
-      </c>
-      <c r="F13" s="71"/>
+      <c r="E13" s="64">
+        <v>0</v>
+      </c>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="71">
-        <v>0</v>
-      </c>
-      <c r="E14" s="71">
-        <v>0</v>
-      </c>
-      <c r="F14" s="71"/>
+      <c r="D14" s="64">
+        <v>0</v>
+      </c>
+      <c r="E14" s="64">
+        <v>0</v>
+      </c>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="71">
-        <v>0</v>
-      </c>
-      <c r="E15" s="71">
-        <v>0</v>
-      </c>
-      <c r="F15" s="71"/>
+      <c r="D15" s="64">
+        <v>0</v>
+      </c>
+      <c r="E15" s="64">
+        <v>0</v>
+      </c>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -8221,17 +8191,17 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="71">
-        <v>0</v>
-      </c>
-      <c r="E16" s="71">
-        <v>0</v>
-      </c>
-      <c r="F16" s="71"/>
+      <c r="D16" s="64">
+        <v>0</v>
+      </c>
+      <c r="E16" s="64">
+        <v>0</v>
+      </c>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -8239,107 +8209,107 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="71">
-        <v>0</v>
-      </c>
-      <c r="E17" s="71">
-        <v>0</v>
-      </c>
-      <c r="F17" s="71"/>
+      <c r="D17" s="64">
+        <v>0</v>
+      </c>
+      <c r="E17" s="64">
+        <v>0</v>
+      </c>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="71">
-        <v>0</v>
-      </c>
-      <c r="E18" s="71">
-        <v>0</v>
-      </c>
-      <c r="F18" s="71"/>
+      <c r="D18" s="64">
+        <v>0</v>
+      </c>
+      <c r="E18" s="64">
+        <v>0</v>
+      </c>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
       </c>
       <c r="C19" s="3">
         <v>505099</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="64">
         <v>2</v>
       </c>
-      <c r="E19" s="71">
-        <v>0</v>
-      </c>
-      <c r="F19" s="71"/>
+      <c r="E19" s="64">
+        <v>0</v>
+      </c>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="71">
-        <v>0</v>
-      </c>
-      <c r="E20" s="71">
-        <v>0</v>
-      </c>
-      <c r="F20" s="71"/>
+      <c r="D20" s="64">
+        <v>0</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0</v>
+      </c>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
       </c>
       <c r="C21" s="3">
         <v>816460</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="64">
         <v>3</v>
       </c>
-      <c r="E21" s="71">
-        <v>0</v>
-      </c>
-      <c r="F21" s="71"/>
+      <c r="E21" s="64">
+        <v>0</v>
+      </c>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="71">
-        <v>0</v>
-      </c>
-      <c r="E22" s="71">
-        <v>0</v>
-      </c>
-      <c r="F22" s="71"/>
+      <c r="D22" s="64">
+        <v>0</v>
+      </c>
+      <c r="E22" s="64">
+        <v>0</v>
+      </c>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -8347,35 +8317,35 @@
       <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="71">
-        <v>0</v>
-      </c>
-      <c r="E23" s="71">
-        <v>0</v>
-      </c>
-      <c r="F23" s="71"/>
+      <c r="D23" s="64">
+        <v>0</v>
+      </c>
+      <c r="E23" s="64">
+        <v>0</v>
+      </c>
+      <c r="F23" s="64"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="3">
         <v>964425</v>
       </c>
-      <c r="D24" s="71">
-        <v>0</v>
-      </c>
-      <c r="E24" s="71">
+      <c r="D24" s="64">
+        <v>0</v>
+      </c>
+      <c r="E24" s="64">
         <v>3</v>
       </c>
-      <c r="F24" s="71"/>
+      <c r="F24" s="64"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -8383,197 +8353,197 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="71">
-        <v>0</v>
-      </c>
-      <c r="E25" s="71">
-        <v>0</v>
-      </c>
-      <c r="F25" s="71"/>
+      <c r="D25" s="64">
+        <v>0</v>
+      </c>
+      <c r="E25" s="64">
+        <v>0</v>
+      </c>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
-      <c r="D26" s="71">
-        <v>0</v>
-      </c>
-      <c r="E26" s="71">
-        <v>0</v>
-      </c>
-      <c r="F26" s="71"/>
+      <c r="D26" s="64">
+        <v>0</v>
+      </c>
+      <c r="E26" s="64">
+        <v>0</v>
+      </c>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
       </c>
       <c r="C27" s="3">
         <v>293322</v>
       </c>
-      <c r="D27" s="71">
-        <v>1</v>
-      </c>
-      <c r="E27" s="71">
-        <v>0</v>
-      </c>
-      <c r="F27" s="71"/>
+      <c r="D27" s="64">
+        <v>1</v>
+      </c>
+      <c r="E27" s="64">
+        <v>0</v>
+      </c>
+      <c r="F27" s="64"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
       <c r="C28" s="3">
         <v>0</v>
       </c>
-      <c r="D28" s="71">
-        <v>0</v>
-      </c>
-      <c r="E28" s="71">
-        <v>0</v>
-      </c>
-      <c r="F28" s="71"/>
+      <c r="D28" s="64">
+        <v>0</v>
+      </c>
+      <c r="E28" s="64">
+        <v>0</v>
+      </c>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
       <c r="C29" s="3">
         <v>0</v>
       </c>
-      <c r="D29" s="71">
-        <v>0</v>
-      </c>
-      <c r="E29" s="71">
-        <v>0</v>
-      </c>
-      <c r="F29" s="71"/>
+      <c r="D29" s="64">
+        <v>0</v>
+      </c>
+      <c r="E29" s="64">
+        <v>0</v>
+      </c>
+      <c r="F29" s="64"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
-      <c r="D30" s="71">
-        <v>0</v>
-      </c>
-      <c r="E30" s="71">
-        <v>0</v>
-      </c>
-      <c r="F30" s="71"/>
+      <c r="D30" s="64">
+        <v>0</v>
+      </c>
+      <c r="E30" s="64">
+        <v>0</v>
+      </c>
+      <c r="F30" s="64"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
-      <c r="D31" s="71">
-        <v>0</v>
-      </c>
-      <c r="E31" s="71">
-        <v>0</v>
-      </c>
-      <c r="F31" s="71"/>
+      <c r="D31" s="64">
+        <v>0</v>
+      </c>
+      <c r="E31" s="64">
+        <v>0</v>
+      </c>
+      <c r="F31" s="64"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
-      <c r="D32" s="71">
-        <v>0</v>
-      </c>
-      <c r="E32" s="71">
-        <v>0</v>
-      </c>
-      <c r="F32" s="71"/>
+      <c r="D32" s="64">
+        <v>0</v>
+      </c>
+      <c r="E32" s="64">
+        <v>0</v>
+      </c>
+      <c r="F32" s="64"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
-      <c r="D33" s="71">
-        <v>0</v>
-      </c>
-      <c r="E33" s="71">
-        <v>0</v>
-      </c>
-      <c r="F33" s="71"/>
+      <c r="D33" s="64">
+        <v>0</v>
+      </c>
+      <c r="E33" s="64">
+        <v>0</v>
+      </c>
+      <c r="F33" s="64"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
         <v>71</v>
       </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
-      <c r="D34" s="71">
-        <v>0</v>
-      </c>
-      <c r="E34" s="71">
-        <v>0</v>
-      </c>
-      <c r="F34" s="71"/>
+      <c r="D34" s="64">
+        <v>0</v>
+      </c>
+      <c r="E34" s="64">
+        <v>0</v>
+      </c>
+      <c r="F34" s="64"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
         <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
       </c>
       <c r="C35" s="3">
         <v>178825</v>
       </c>
-      <c r="D35" s="71">
-        <v>0</v>
-      </c>
-      <c r="E35" s="71">
-        <v>1</v>
-      </c>
-      <c r="F35" s="71"/>
+      <c r="D35" s="64">
+        <v>0</v>
+      </c>
+      <c r="E35" s="64">
+        <v>1</v>
+      </c>
+      <c r="F35" s="64"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -8581,35 +8551,35 @@
       <c r="C36" s="3">
         <v>0</v>
       </c>
-      <c r="D36" s="71">
-        <v>0</v>
-      </c>
-      <c r="E36" s="71">
-        <v>0</v>
-      </c>
-      <c r="F36" s="71"/>
+      <c r="D36" s="64">
+        <v>0</v>
+      </c>
+      <c r="E36" s="64">
+        <v>0</v>
+      </c>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
-      <c r="D37" s="71">
-        <v>0</v>
-      </c>
-      <c r="E37" s="71">
-        <v>0</v>
-      </c>
-      <c r="F37" s="71"/>
+      <c r="D37" s="64">
+        <v>0</v>
+      </c>
+      <c r="E37" s="64">
+        <v>0</v>
+      </c>
+      <c r="F37" s="64"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -8617,53 +8587,53 @@
       <c r="C38" s="3">
         <v>506675</v>
       </c>
-      <c r="D38" s="71">
-        <v>1</v>
-      </c>
-      <c r="E38" s="71">
-        <v>1</v>
-      </c>
-      <c r="F38" s="71"/>
+      <c r="D38" s="64">
+        <v>1</v>
+      </c>
+      <c r="E38" s="64">
+        <v>1</v>
+      </c>
+      <c r="F38" s="64"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
-      <c r="D39" s="71">
-        <v>0</v>
-      </c>
-      <c r="E39" s="71">
-        <v>0</v>
-      </c>
-      <c r="F39" s="71"/>
+      <c r="D39" s="64">
+        <v>0</v>
+      </c>
+      <c r="E39" s="64">
+        <v>0</v>
+      </c>
+      <c r="F39" s="64"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
       </c>
       <c r="C40" s="3">
         <v>692343</v>
       </c>
-      <c r="D40" s="71">
-        <v>1</v>
-      </c>
-      <c r="E40" s="71">
-        <v>1</v>
-      </c>
-      <c r="F40" s="71"/>
+      <c r="D40" s="64">
+        <v>1</v>
+      </c>
+      <c r="E40" s="64">
+        <v>1</v>
+      </c>
+      <c r="F40" s="64"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -8671,89 +8641,89 @@
       <c r="C41" s="3">
         <v>0</v>
       </c>
-      <c r="D41" s="71">
-        <v>0</v>
-      </c>
-      <c r="E41" s="71">
-        <v>0</v>
-      </c>
-      <c r="F41" s="71"/>
+      <c r="D41" s="64">
+        <v>0</v>
+      </c>
+      <c r="E41" s="64">
+        <v>0</v>
+      </c>
+      <c r="F41" s="64"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
       <c r="C42" s="3">
         <v>0</v>
       </c>
-      <c r="D42" s="71">
-        <v>0</v>
-      </c>
-      <c r="E42" s="71">
-        <v>0</v>
-      </c>
-      <c r="F42" s="71"/>
+      <c r="D42" s="64">
+        <v>0</v>
+      </c>
+      <c r="E42" s="64">
+        <v>0</v>
+      </c>
+      <c r="F42" s="64"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
       </c>
       <c r="C43" s="3">
         <v>437333</v>
       </c>
-      <c r="D43" s="71">
-        <v>1</v>
-      </c>
-      <c r="E43" s="71">
-        <v>1</v>
-      </c>
-      <c r="F43" s="71"/>
+      <c r="D43" s="64">
+        <v>1</v>
+      </c>
+      <c r="E43" s="64">
+        <v>1</v>
+      </c>
+      <c r="F43" s="64"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
       <c r="C44" s="3">
         <v>0</v>
       </c>
-      <c r="D44" s="71">
-        <v>0</v>
-      </c>
-      <c r="E44" s="71">
-        <v>0</v>
-      </c>
-      <c r="F44" s="71"/>
+      <c r="D44" s="64">
+        <v>0</v>
+      </c>
+      <c r="E44" s="64">
+        <v>0</v>
+      </c>
+      <c r="F44" s="64"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
         <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
       </c>
       <c r="C45" s="3">
         <v>241241</v>
       </c>
-      <c r="D45" s="71">
-        <v>1</v>
-      </c>
-      <c r="E45" s="71">
-        <v>0</v>
-      </c>
-      <c r="F45" s="71"/>
+      <c r="D45" s="64">
+        <v>1</v>
+      </c>
+      <c r="E45" s="64">
+        <v>0</v>
+      </c>
+      <c r="F45" s="64"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -8761,53 +8731,53 @@
       <c r="C46" s="3">
         <v>860504</v>
       </c>
-      <c r="D46" s="71">
+      <c r="D46" s="64">
         <v>4</v>
       </c>
-      <c r="E46" s="71">
-        <v>1</v>
-      </c>
-      <c r="F46" s="71"/>
+      <c r="E46" s="64">
+        <v>1</v>
+      </c>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
       <c r="C47" s="3">
         <v>0</v>
       </c>
-      <c r="D47" s="71">
-        <v>0</v>
-      </c>
-      <c r="E47" s="71">
-        <v>0</v>
-      </c>
-      <c r="F47" s="71"/>
+      <c r="D47" s="64">
+        <v>0</v>
+      </c>
+      <c r="E47" s="64">
+        <v>0</v>
+      </c>
+      <c r="F47" s="64"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
       <c r="C48" s="3">
         <v>0</v>
       </c>
-      <c r="D48" s="71">
-        <v>0</v>
-      </c>
-      <c r="E48" s="71">
-        <v>0</v>
-      </c>
-      <c r="F48" s="71"/>
+      <c r="D48" s="64">
+        <v>0</v>
+      </c>
+      <c r="E48" s="64">
+        <v>0</v>
+      </c>
+      <c r="F48" s="64"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -8815,53 +8785,53 @@
       <c r="C49" s="3">
         <v>0</v>
       </c>
-      <c r="D49" s="71">
-        <v>0</v>
-      </c>
-      <c r="E49" s="71">
-        <v>0</v>
-      </c>
-      <c r="F49" s="71"/>
+      <c r="D49" s="64">
+        <v>0</v>
+      </c>
+      <c r="E49" s="64">
+        <v>0</v>
+      </c>
+      <c r="F49" s="64"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
       <c r="C50" s="3">
         <v>0</v>
       </c>
-      <c r="D50" s="71">
-        <v>0</v>
-      </c>
-      <c r="E50" s="71">
-        <v>0</v>
-      </c>
-      <c r="F50" s="71"/>
+      <c r="D50" s="64">
+        <v>0</v>
+      </c>
+      <c r="E50" s="64">
+        <v>0</v>
+      </c>
+      <c r="F50" s="64"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
       <c r="C51" s="3">
         <v>0</v>
       </c>
-      <c r="D51" s="71">
-        <v>0</v>
-      </c>
-      <c r="E51" s="71">
-        <v>0</v>
-      </c>
-      <c r="F51" s="71"/>
+      <c r="D51" s="64">
+        <v>0</v>
+      </c>
+      <c r="E51" s="64">
+        <v>0</v>
+      </c>
+      <c r="F51" s="64"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -8869,111 +8839,49 @@
       <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="D52" s="71">
-        <v>0</v>
-      </c>
-      <c r="E52" s="71">
-        <v>0</v>
-      </c>
-      <c r="F52" s="71"/>
+      <c r="D52" s="64">
+        <v>0</v>
+      </c>
+      <c r="E52" s="64">
+        <v>0</v>
+      </c>
+      <c r="F52" s="64"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
       <c r="C53" s="3">
         <v>0</v>
       </c>
-      <c r="D53" s="71">
-        <v>0</v>
-      </c>
-      <c r="E53" s="71">
-        <v>0</v>
-      </c>
-      <c r="F53" s="71"/>
+      <c r="D53" s="64">
+        <v>0</v>
+      </c>
+      <c r="E53" s="64">
+        <v>0</v>
+      </c>
+      <c r="F53" s="64"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C54" s="3">
         <v>10491398</v>
       </c>
-      <c r="D54" s="71">
+      <c r="D54" s="64">
         <v>26</v>
       </c>
-      <c r="E54" s="71">
+      <c r="E54" s="64">
         <v>21</v>
       </c>
-      <c r="F54" s="71"/>
+      <c r="F54" s="64"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="S4" s="21"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://history.house.gov/Institution/Election-Statistics/2016election/"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/extracted/Congressional Election Results by State (2012 - 113th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2012 - 113th).xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30615790-6EC7-2844-B462-71B09CE825DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F407FA0C-6FD9-6149-9BE8-26CE2A4D3A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="4" r:id="rId2"/>
-    <sheet name="Uncontested PIVOT" sheetId="5" r:id="rId3"/>
-    <sheet name="RESULTS" sheetId="6" r:id="rId4"/>
-    <sheet name="UNCONTESTED" sheetId="7" r:id="rId5"/>
+    <sheet name="RESULTS" sheetId="6" r:id="rId3"/>
+    <sheet name="UNCONTESTED" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$J$2:$J$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Uncontested Races'!$A$2:$J$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="161">
   <si>
     <t>State</t>
   </si>
@@ -492,15 +488,6 @@
     <t>Uncontested Votes</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of REP2</t>
-  </si>
-  <si>
-    <t>Sum of DEM2</t>
-  </si>
-  <si>
     <t>TOT2</t>
   </si>
   <si>
@@ -508,24 +495,6 @@
   </si>
   <si>
     <t xml:space="preserve">           Actual Seats</t>
-  </si>
-  <si>
-    <t>REP3</t>
-  </si>
-  <si>
-    <t>DEM3</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>AVG Votes</t>
-  </si>
-  <si>
-    <t>Uncontested</t>
-  </si>
-  <si>
-    <t>TOT3</t>
   </si>
   <si>
     <t>STATE</t>
@@ -601,6 +570,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,6 +578,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,14 +609,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -682,26 +647,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -714,7 +659,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,22 +691,6 @@
     <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -774,14 +703,7 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -792,1508 +714,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42865.358821759262" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="80" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J82" sheet="Uncontested Races"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems count="50">
-        <s v="Alabama"/>
-        <s v="Alaska"/>
-        <s v="Arizona"/>
-        <s v="Arkansas"/>
-        <s v="California"/>
-        <s v="Colorado"/>
-        <s v="Connecticut"/>
-        <s v="Delaware"/>
-        <s v="Florida"/>
-        <s v="Georgia"/>
-        <s v="Hawaiʻi"/>
-        <s v="Idaho"/>
-        <s v="Illinois"/>
-        <s v="Indiana"/>
-        <s v="Iowa"/>
-        <s v="Kansas"/>
-        <s v="Kentucky"/>
-        <s v="Louisiana"/>
-        <s v="Maine"/>
-        <s v="Maryland"/>
-        <s v="Massachusetts"/>
-        <s v="Michigan"/>
-        <s v="Minnesota"/>
-        <s v="Mississippi"/>
-        <s v="Missouri"/>
-        <s v="Montana"/>
-        <s v="Nebraska"/>
-        <s v="Nevada"/>
-        <s v="New Hampshire"/>
-        <s v="New Jersey"/>
-        <s v="New Mexico"/>
-        <s v="New York"/>
-        <s v="North Carolina"/>
-        <s v="North Dakota"/>
-        <s v="Ohio"/>
-        <s v="Oklahoma"/>
-        <s v="Oregon"/>
-        <s v="Pennsylvania"/>
-        <s v="Rhode Island"/>
-        <s v="South Carolina"/>
-        <s v="South Dakota"/>
-        <s v="Tennessee"/>
-        <s v="Texas"/>
-        <s v="Utah"/>
-        <s v="Vermont"/>
-        <s v="Virginia"/>
-        <s v="Washington"/>
-        <s v="West Virginia"/>
-        <s v="Wisconsin"/>
-        <s v="Wyoming"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="**" numFmtId="0">
-      <sharedItems count="50">
-        <s v="AL"/>
-        <s v="AK"/>
-        <s v="AZ"/>
-        <s v="AR"/>
-        <s v="CA"/>
-        <s v="CO"/>
-        <s v="CT"/>
-        <s v="DE"/>
-        <s v="FL"/>
-        <s v="GA"/>
-        <s v="HI"/>
-        <s v="ID"/>
-        <s v="IL"/>
-        <s v="IN"/>
-        <s v="IA"/>
-        <s v="KS"/>
-        <s v="KY"/>
-        <s v="LA"/>
-        <s v="ME"/>
-        <s v="MD"/>
-        <s v="MA"/>
-        <s v="MI"/>
-        <s v="MN"/>
-        <s v="MS"/>
-        <s v="MO"/>
-        <s v="MT"/>
-        <s v="NE"/>
-        <s v="NV"/>
-        <s v="NH"/>
-        <s v="NJ"/>
-        <s v="NM"/>
-        <s v="NY"/>
-        <s v="NC"/>
-        <s v="ND"/>
-        <s v="OH"/>
-        <s v="OK"/>
-        <s v="OR"/>
-        <s v="PA"/>
-        <s v="RI"/>
-        <s v="SC"/>
-        <s v="SD"/>
-        <s v="TN"/>
-        <s v="TX"/>
-        <s v="UT"/>
-        <s v="VT"/>
-        <s v="VA"/>
-        <s v="WA"/>
-        <s v="WV"/>
-        <s v="WI"/>
-        <s v="WY"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="District" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="REP1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="246378"/>
-    </cacheField>
-    <cacheField name="DEM1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="261936"/>
-    </cacheField>
-    <cacheField name="OTH1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="147222"/>
-    </cacheField>
-    <cacheField name="TOT1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="360088"/>
-    </cacheField>
-    <cacheField name="REP2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="DEM2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="0"/>
-        <n v="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="OTH2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="80">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="1st"/>
-    <n v="196374"/>
-    <n v="0"/>
-    <n v="4302"/>
-    <n v="200676"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="104489"/>
-    <n v="23338"/>
-    <n v="127827"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="3rd"/>
-    <n v="186467"/>
-    <n v="0"/>
-    <n v="59193"/>
-    <n v="245660"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="8th"/>
-    <n v="179644"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="179644"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="13th"/>
-    <n v="0"/>
-    <n v="250436"/>
-    <n v="38146"/>
-    <n v="288582"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="15th"/>
-    <n v="0"/>
-    <n v="231034"/>
-    <n v="0"/>
-    <n v="231034"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="23rd"/>
-    <n v="158161"/>
-    <n v="0"/>
-    <n v="57842"/>
-    <n v="216003"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="29th"/>
-    <n v="0"/>
-    <n v="111287"/>
-    <n v="38994"/>
-    <n v="150281"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="30th"/>
-    <n v="0"/>
-    <n v="247851"/>
-    <n v="0"/>
-    <n v="247851"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="31st"/>
-    <n v="161219"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="161219"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="33rd"/>
-    <n v="0"/>
-    <n v="171860"/>
-    <n v="146660"/>
-    <n v="318520"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="35th"/>
-    <n v="0"/>
-    <n v="142680"/>
-    <n v="0"/>
-    <n v="142680"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="40th"/>
-    <n v="0"/>
-    <n v="125553"/>
-    <n v="0"/>
-    <n v="125553"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="43rd"/>
-    <n v="0"/>
-    <n v="200894"/>
-    <n v="0"/>
-    <n v="200894"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="44th"/>
-    <n v="0"/>
-    <n v="165898"/>
-    <n v="0"/>
-    <n v="165898"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="5th"/>
-    <n v="199639"/>
-    <n v="0"/>
-    <n v="107592"/>
-    <n v="307231"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="4th"/>
-    <n v="239988"/>
-    <n v="0"/>
-    <n v="75482"/>
-    <n v="315470"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="15th"/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="214727"/>
-    <n v="29558"/>
-    <n v="244285"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="21st"/>
-    <n v="0"/>
-    <n v="221263"/>
-    <n v="63137"/>
-    <n v="284400"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="24th"/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="25th"/>
-    <n v="151466"/>
-    <n v="0"/>
-    <n v="48763"/>
-    <n v="200229"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="3rd"/>
-    <n v="232380"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="232380"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="8th"/>
-    <n v="197789"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="197789"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="10th"/>
-    <n v="211065"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="211065"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="1st"/>
-    <n v="211337"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="211337"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="3rd"/>
-    <n v="201087"/>
-    <n v="0"/>
-    <n v="92675"/>
-    <n v="293762"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="4th"/>
-    <n v="187894"/>
-    <n v="0"/>
-    <n v="61637"/>
-    <n v="249531"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="5th"/>
-    <n v="202536"/>
-    <n v="0"/>
-    <n v="57680"/>
-    <n v="260216"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="6th"/>
-    <n v="243553"/>
-    <n v="0"/>
-    <n v="63160"/>
-    <n v="306713"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="261936"/>
-    <n v="74619"/>
-    <n v="336555"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="259257"/>
-    <n v="83479"/>
-    <n v="342736"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="210794"/>
-    <n v="74340"/>
-    <n v="285134"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="3rd"/>
-    <n v="234717"/>
-    <n v="0"/>
-    <n v="58605"/>
-    <n v="293322"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="132456"/>
-    <n v="46369"/>
-    <n v="178825"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="8th"/>
-    <n v="246378"/>
-    <n v="0"/>
-    <n v="1938"/>
-    <n v="248316"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="11th"/>
-    <n v="0"/>
-    <n v="258359"/>
-    <n v="0"/>
-    <n v="258359"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="2nd"/>
-    <n v="228043"/>
-    <n v="0"/>
-    <n v="104212"/>
-    <n v="332255"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="212866"/>
-    <n v="147222"/>
-    <n v="360088"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="2nd"/>
-    <n v="196116"/>
-    <n v="0"/>
-    <n v="7602"/>
-    <n v="203718"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="218717"/>
-    <n v="14898"/>
-    <n v="233615"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="6th"/>
-    <n v="184383"/>
-    <n v="0"/>
-    <n v="56858"/>
-    <n v="241241"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="3rd"/>
-    <n v="187180"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="187180"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="13th"/>
-    <n v="187775"/>
-    <n v="0"/>
-    <n v="18613"/>
-    <n v="206388"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="17th"/>
-    <n v="143284"/>
-    <n v="0"/>
-    <n v="35978"/>
-    <n v="179262"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="19th"/>
-    <n v="163239"/>
-    <n v="0"/>
-    <n v="28824"/>
-    <n v="192063"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="29th"/>
-    <n v="0"/>
-    <n v="86053"/>
-    <n v="9558"/>
-    <n v="95611"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Uncontested Votes" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of REP2" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of DEM2" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2559,13 +979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2575,42 +995,31 @@
     <col min="3" max="3" width="10.83203125" style="13"/>
     <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="13" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" style="17" customWidth="1"/>
-    <col min="12" max="14" width="5.83203125" customWidth="1"/>
-    <col min="15" max="15" width="26" style="17" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="17" customWidth="1"/>
+    <col min="8" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="26" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="32" t="s">
-        <v>155</v>
-      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="15"/>
-      <c r="L1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2629,35 +1038,23 @@
       <c r="F2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>156</v>
+      <c r="G2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2677,34 +1074,21 @@
       <c r="F3" s="3">
         <v>1933630</v>
       </c>
-      <c r="G3" s="13">
-        <v>200676</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
-        <f t="shared" ref="J3:J34" si="1">(F3-G3)/(N3-SUM(H3:I3))</f>
-        <v>288825.66666666669</v>
-      </c>
-      <c r="K3" s="17">
-        <f t="shared" ref="K3:K52" si="2">N3-L3-M3</f>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G52" si="1">J3-H3-I3</f>
         <v>6</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2724,34 +1108,21 @@
       <c r="F4" s="3">
         <v>289804</v>
       </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <f t="shared" si="1"/>
-        <v>289804</v>
-      </c>
-      <c r="K4" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G4" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2771,34 +1142,21 @@
       <c r="F5" s="3">
         <v>2173317</v>
       </c>
-      <c r="G5" s="13">
-        <v>127827</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="30">
-        <f t="shared" si="1"/>
-        <v>255686.25</v>
-      </c>
-      <c r="K5" s="17">
-        <f t="shared" si="2"/>
+      <c r="G5" s="17">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2818,34 +1176,21 @@
       <c r="F6" s="3">
         <v>1038054</v>
       </c>
-      <c r="G6" s="13">
-        <v>245660</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <f t="shared" si="1"/>
-        <v>264131.33333333331</v>
-      </c>
-      <c r="K6" s="17">
-        <f t="shared" si="2"/>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2865,34 +1210,21 @@
       <c r="F7" s="3">
         <v>12204357</v>
       </c>
-      <c r="G7" s="13">
-        <v>2428159</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>9</v>
-      </c>
-      <c r="J7" s="30">
-        <f t="shared" si="1"/>
-        <v>238443.85365853659</v>
-      </c>
-      <c r="K7" s="17">
-        <f t="shared" si="2"/>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L7">
+      <c r="H7">
         <v>38</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2912,34 +1244,21 @@
       <c r="F8" s="3">
         <v>2450488</v>
       </c>
-      <c r="G8" s="13">
-        <v>307231</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <f t="shared" si="1"/>
-        <v>357209.5</v>
-      </c>
-      <c r="K8" s="17">
-        <f t="shared" si="2"/>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2959,34 +1278,21 @@
       <c r="F9" s="3">
         <v>1466511</v>
       </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
-        <f t="shared" si="1"/>
-        <v>293302.2</v>
-      </c>
-      <c r="K9" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="G9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3006,34 +1312,21 @@
       <c r="F10" s="3">
         <v>388059</v>
       </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <f t="shared" si="1"/>
-        <v>388059</v>
-      </c>
-      <c r="K10" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3053,37 +1346,24 @@
       <c r="F11" s="3">
         <v>7513534</v>
       </c>
-      <c r="G11" s="13">
-        <v>1044384</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3</v>
-      </c>
-      <c r="J11" s="30">
-        <f t="shared" si="1"/>
-        <v>308054.76190476189</v>
-      </c>
-      <c r="K11" s="17">
-        <f t="shared" si="2"/>
+      <c r="G11" s="17">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L11">
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>27</v>
       </c>
-      <c r="P11" t="s">
+      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3103,34 +1383,21 @@
       <c r="F12" s="3">
         <v>3552967</v>
       </c>
-      <c r="G12" s="13">
-        <v>641234</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <f t="shared" si="1"/>
-        <v>264703</v>
-      </c>
-      <c r="K12" s="17">
-        <f t="shared" si="2"/>
+      <c r="G12" s="17">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L12">
+      <c r="H12">
         <v>5</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3150,34 +1417,21 @@
       <c r="F13" s="3">
         <v>437159</v>
       </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <f t="shared" si="1"/>
-        <v>218579.5</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="G13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3197,34 +1451,21 @@
       <c r="F14" s="3">
         <v>635218</v>
       </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
-        <f t="shared" si="1"/>
-        <v>317609</v>
-      </c>
-      <c r="K14" s="17">
-        <f t="shared" si="2"/>
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3244,34 +1485,21 @@
       <c r="F15" s="3">
         <v>5058133</v>
       </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30">
-        <f t="shared" si="1"/>
-        <v>281007.38888888888</v>
-      </c>
-      <c r="K15" s="17">
-        <f t="shared" si="2"/>
+      <c r="G15" s="17">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L15">
+      <c r="H15">
         <v>12</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3291,34 +1519,21 @@
       <c r="F16" s="3">
         <v>2553746</v>
       </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30">
-        <f t="shared" si="1"/>
-        <v>283749.55555555556</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" si="2"/>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3338,34 +1553,21 @@
       <c r="F17" s="3">
         <v>1536849</v>
       </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30">
-        <f t="shared" si="1"/>
-        <v>384212.25</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="2"/>
+      <c r="G17" s="17">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -3385,34 +1587,21 @@
       <c r="F18" s="3">
         <v>1057739</v>
       </c>
-      <c r="G18" s="13">
-        <v>505099</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30">
-        <f t="shared" si="1"/>
-        <v>276320</v>
-      </c>
-      <c r="K18" s="17">
-        <f t="shared" si="2"/>
+      <c r="G18" s="17">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3432,34 +1621,21 @@
       <c r="F19" s="3">
         <v>1745377</v>
       </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30">
-        <f t="shared" si="1"/>
-        <v>290896.16666666669</v>
-      </c>
-      <c r="K19" s="17">
-        <f t="shared" si="2"/>
+      <c r="G19" s="17">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -3479,34 +1655,21 @@
       <c r="F20" s="3">
         <v>1705617</v>
       </c>
-      <c r="G20" s="13">
-        <v>816460</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="30">
-        <f t="shared" si="1"/>
-        <v>296385.66666666669</v>
-      </c>
-      <c r="K20" s="17">
-        <f t="shared" si="2"/>
+      <c r="G20" s="17">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -3526,34 +1689,21 @@
       <c r="F21" s="3">
         <v>724623</v>
       </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30">
-        <f t="shared" si="1"/>
-        <v>362311.5</v>
-      </c>
-      <c r="K21" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="G21" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3573,34 +1723,21 @@
       <c r="F22" s="3">
         <v>2585514</v>
       </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="30">
-        <f t="shared" si="1"/>
-        <v>323189.25</v>
-      </c>
-      <c r="K22" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L22">
+      <c r="G22" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>7</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -3620,34 +1757,21 @@
       <c r="F23" s="3">
         <v>3184196</v>
       </c>
-      <c r="G23" s="13">
-        <v>964425</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3</v>
-      </c>
-      <c r="J23" s="30">
-        <f t="shared" si="1"/>
-        <v>369961.83333333331</v>
-      </c>
-      <c r="K23" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -3667,34 +1791,21 @@
       <c r="F24" s="3">
         <v>4574632</v>
       </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30">
-        <f t="shared" si="1"/>
-        <v>326759.42857142858</v>
-      </c>
-      <c r="K24" s="17">
-        <f t="shared" si="2"/>
+      <c r="G24" s="17">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L24">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3714,34 +1825,21 @@
       <c r="F25" s="3">
         <v>2813383</v>
       </c>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30">
-        <f t="shared" si="1"/>
-        <v>351672.875</v>
-      </c>
-      <c r="K25" s="17">
-        <f t="shared" si="2"/>
+      <c r="G25" s="17">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L25">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3761,34 +1859,21 @@
       <c r="F26" s="3">
         <v>1208175</v>
       </c>
-      <c r="G26" s="13">
-        <v>293322</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30">
-        <f t="shared" si="1"/>
-        <v>304951</v>
-      </c>
-      <c r="K26" s="17">
-        <f t="shared" si="2"/>
+      <c r="G26" s="17">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3808,34 +1893,21 @@
       <c r="F27" s="3">
         <v>2675900</v>
       </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30">
-        <f t="shared" si="1"/>
-        <v>334487.5</v>
-      </c>
-      <c r="K27" s="17">
-        <f t="shared" si="2"/>
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L27">
+      <c r="H27">
         <v>2</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3855,34 +1927,21 @@
       <c r="F28" s="3">
         <v>479740</v>
       </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="30">
-        <f t="shared" si="1"/>
-        <v>479740</v>
-      </c>
-      <c r="K28" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G28" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3902,34 +1961,21 @@
       <c r="F29" s="3">
         <v>772515</v>
       </c>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="30">
-        <f t="shared" si="1"/>
-        <v>257505</v>
-      </c>
-      <c r="K29" s="17">
-        <f t="shared" si="2"/>
+      <c r="G29" s="17">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3949,34 +1995,21 @@
       <c r="F30" s="3">
         <v>973742</v>
       </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="30">
-        <f t="shared" si="1"/>
-        <v>243435.5</v>
-      </c>
-      <c r="K30" s="17">
-        <f t="shared" si="2"/>
+      <c r="G30" s="17">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L30">
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3996,34 +2029,21 @@
       <c r="F31" s="3">
         <v>682416</v>
       </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="30">
-        <f t="shared" si="1"/>
-        <v>341208</v>
-      </c>
-      <c r="K31" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="G31" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4043,34 +2063,21 @@
       <c r="F32" s="3">
         <v>3281778</v>
       </c>
-      <c r="G32" s="13">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="30">
-        <f t="shared" si="1"/>
-        <v>273481.5</v>
-      </c>
-      <c r="K32" s="17">
-        <f t="shared" si="2"/>
+      <c r="G32" s="17">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L32">
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4090,34 +2097,21 @@
       <c r="F33" s="3">
         <v>766090</v>
       </c>
-      <c r="G33" s="13">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="30">
-        <f t="shared" si="1"/>
-        <v>255363.33333333334</v>
-      </c>
-      <c r="K33" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L33">
+      <c r="G33" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4137,34 +2131,21 @@
       <c r="F34" s="3">
         <v>7116336</v>
       </c>
-      <c r="G34" s="13">
-        <v>178825</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="30">
-        <f t="shared" si="1"/>
-        <v>266827.34615384613</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="2"/>
+      <c r="G34" s="17">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L34">
+      <c r="H34">
         <v>21</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4184,34 +2165,21 @@
       <c r="F35" s="3">
         <v>4384112</v>
       </c>
-      <c r="G35" s="13">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="30">
-        <f t="shared" ref="J35:J52" si="3">(F35-G35)/(N35-SUM(H35:I35))</f>
-        <v>337239.38461538462</v>
-      </c>
-      <c r="K35" s="17">
-        <f t="shared" si="2"/>
+      <c r="G35" s="17">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L35">
+      <c r="H35">
         <v>4</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -4231,34 +2199,21 @@
       <c r="F36" s="3">
         <v>316224</v>
       </c>
-      <c r="G36" s="13">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="30">
-        <f t="shared" si="3"/>
-        <v>316224</v>
-      </c>
-      <c r="K36" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G36" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -4278,34 +2233,21 @@
       <c r="F37" s="3">
         <v>5142126</v>
       </c>
-      <c r="G37" s="13">
-        <v>506675</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="30">
-        <f t="shared" si="3"/>
-        <v>331103.64285714284</v>
-      </c>
-      <c r="K37" s="17">
-        <f t="shared" si="2"/>
+      <c r="G37" s="17">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L37">
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4325,34 +2267,21 @@
       <c r="F38" s="3">
         <v>1325935</v>
       </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="30">
-        <f t="shared" si="3"/>
-        <v>265187</v>
-      </c>
-      <c r="K38" s="17">
-        <f t="shared" si="2"/>
+      <c r="G38" s="17">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -4372,34 +2301,21 @@
       <c r="F39" s="3">
         <v>1708168</v>
       </c>
-      <c r="G39" s="13">
-        <v>692343</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="30">
-        <f t="shared" si="3"/>
-        <v>338608.33333333331</v>
-      </c>
-      <c r="K39" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="G39" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4419,34 +2335,21 @@
       <c r="F40" s="3">
         <v>5556330</v>
       </c>
-      <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="30">
-        <f t="shared" si="3"/>
-        <v>308685</v>
-      </c>
-      <c r="K40" s="17">
-        <f t="shared" si="2"/>
+      <c r="G40" s="17">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L40">
+      <c r="H40">
         <v>5</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -4466,34 +2369,21 @@
       <c r="F41" s="3">
         <v>427775</v>
       </c>
-      <c r="G41" s="13">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="30">
-        <f t="shared" si="3"/>
-        <v>213887.5</v>
-      </c>
-      <c r="K41" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="G41" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -4513,34 +2403,21 @@
       <c r="F42" s="3">
         <v>1802734</v>
       </c>
-      <c r="G42" s="13">
-        <v>437333</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-      <c r="J42" s="30">
-        <f t="shared" si="3"/>
-        <v>273080.2</v>
-      </c>
-      <c r="K42" s="17">
-        <f t="shared" si="2"/>
+      <c r="G42" s="17">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -4560,34 +2437,21 @@
       <c r="F43" s="3">
         <v>361429</v>
       </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="30">
-        <f t="shared" si="3"/>
-        <v>361429</v>
-      </c>
-      <c r="K43" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G43" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -4607,34 +2471,21 @@
       <c r="F44" s="3">
         <v>2283727</v>
       </c>
-      <c r="G44" s="13">
-        <v>241241</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="30">
-        <f t="shared" si="3"/>
-        <v>255310.75</v>
-      </c>
-      <c r="K44" s="17">
-        <f t="shared" si="2"/>
+      <c r="G44" s="17">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L44">
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -4654,34 +2505,21 @@
       <c r="F45" s="3">
         <v>7664208</v>
       </c>
-      <c r="G45" s="13">
-        <v>860504</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1</v>
-      </c>
-      <c r="J45" s="30">
-        <f t="shared" si="3"/>
-        <v>219474.32258064515</v>
-      </c>
-      <c r="K45" s="17">
-        <f t="shared" si="2"/>
+      <c r="G45" s="17">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L45">
+      <c r="H45">
         <v>12</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -4701,34 +2539,21 @@
       <c r="F46" s="3">
         <v>998897</v>
       </c>
-      <c r="G46" s="13">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="30">
-        <f t="shared" si="3"/>
-        <v>249724.25</v>
-      </c>
-      <c r="K46" s="17">
-        <f t="shared" si="2"/>
+      <c r="G46" s="17">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4748,34 +2573,21 @@
       <c r="F47" s="3">
         <v>289931</v>
       </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="30">
-        <f t="shared" si="3"/>
-        <v>289931</v>
-      </c>
-      <c r="K47" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G47" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -4795,34 +2607,21 @@
       <c r="F48" s="3">
         <v>3740455</v>
       </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="30">
-        <f t="shared" si="3"/>
-        <v>340041.36363636365</v>
-      </c>
-      <c r="K48" s="17">
-        <f t="shared" si="2"/>
+      <c r="G48" s="17">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L48">
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4842,34 +2641,21 @@
       <c r="F49" s="3">
         <v>3006266</v>
       </c>
-      <c r="G49" s="13">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="30">
-        <f t="shared" si="3"/>
-        <v>300626.59999999998</v>
-      </c>
-      <c r="K49" s="17">
-        <f t="shared" si="2"/>
+      <c r="G49" s="17">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L49">
+      <c r="H49">
         <v>6</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -4889,34 +2675,21 @@
       <c r="F50" s="3">
         <v>641354</v>
       </c>
-      <c r="G50" s="13">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="30">
-        <f t="shared" si="3"/>
-        <v>213784.66666666666</v>
-      </c>
-      <c r="K50" s="17">
-        <f t="shared" si="2"/>
+      <c r="G50" s="17">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4936,34 +2709,21 @@
       <c r="F51" s="3">
         <v>2866050</v>
       </c>
-      <c r="G51" s="13">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="30">
-        <f t="shared" si="3"/>
-        <v>358256.25</v>
-      </c>
-      <c r="K51" s="17">
-        <f t="shared" si="2"/>
+      <c r="G51" s="17">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L51">
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -4983,37 +2743,24 @@
       <c r="F52" s="3">
         <v>250700</v>
       </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="30">
-        <f t="shared" si="3"/>
-        <v>250700</v>
-      </c>
-      <c r="K52" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G52" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5023,51 +2770,36 @@
         <v>57622827</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" ref="D54:F54" si="4">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:F54" si="2">SUM(D3:D52)</f>
         <v>59214910</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5508283</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>122346020</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="18">
         <f>SUM(G3:G52)</f>
-        <v>10491398</v>
-      </c>
-      <c r="H54" s="7">
-        <f t="shared" ref="H54:I54" si="5">SUM(H3:H52)</f>
-        <v>26</v>
-      </c>
-      <c r="I54" s="7">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="J54" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="18">
-        <f>SUM(K3:K52)</f>
         <v>234</v>
       </c>
-      <c r="L54" s="5">
-        <f t="shared" ref="L54:N54" si="6">SUM(L3:L52)</f>
+      <c r="H54" s="5">
+        <f t="shared" ref="H54:J54" si="3">SUM(H3:H52)</f>
         <v>201</v>
       </c>
-      <c r="M54" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="5">
-        <f t="shared" si="6"/>
+      <c r="I54" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="3"/>
         <v>435</v>
       </c>
-      <c r="O54" s="18"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K54" s="18"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -5080,20 +2812,20 @@
       <c r="F57" s="3">
         <v>122346020</v>
       </c>
-      <c r="K57" s="17">
+      <c r="G57" s="17">
         <v>234</v>
       </c>
-      <c r="L57">
+      <c r="H57">
         <v>201</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -5102,36 +2834,36 @@
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:F58" si="7">D54-D57</f>
+        <f t="shared" ref="D58:F58" si="4">D54-D57</f>
         <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="17">
-        <f>K54-K57</f>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>L54-L57</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <f>M54-M57</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>N54-N57</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="17">
+        <f>G54-G57</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>H54-H57</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>I54-I57</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>J54-J57</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:X54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T54">
     <sortCondition ref="A5:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5140,13 +2872,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5157,10 +2889,10 @@
     <col min="6" max="6" width="10.83203125" style="19"/>
     <col min="7" max="7" width="10.83203125" style="3"/>
     <col min="8" max="8" width="10.83203125" style="17"/>
-    <col min="11" max="11" width="52.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -5179,7 +2911,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5214,7 +2946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5246,8 +2978,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f>IF(AND(SUM(H3:J3)=0,G3&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5279,8 +3015,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="1">IF(AND(SUM(H4:J4)=0,G4&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5312,8 +3052,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5345,8 +3089,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5378,8 +3126,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -5411,8 +3163,12 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5444,8 +3200,12 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5477,8 +3237,12 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5510,8 +3274,12 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5543,8 +3311,12 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5576,8 +3348,12 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5609,8 +3385,12 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5642,8 +3422,12 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -5675,8 +3459,12 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5708,8 +3496,12 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5741,8 +3533,12 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -5774,8 +3570,12 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5807,8 +3607,12 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5840,8 +3644,12 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -5873,8 +3681,12 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>31</v>
       </c>
@@ -5908,8 +3720,12 @@
       <c r="K23" s="22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5941,8 +3757,12 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5974,8 +3794,12 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
@@ -6010,8 +3834,12 @@
       <c r="K26" s="22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -6028,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" ref="F27:F58" si="1">G27-SUM(D27:E27)</f>
+        <f t="shared" ref="F27:F58" si="2">G27-SUM(D27:E27)</f>
         <v>48763</v>
       </c>
       <c r="G27" s="3">
@@ -6043,8 +3871,12 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -6061,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
@@ -6076,8 +3908,12 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -6094,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="3">
@@ -6109,8 +3945,12 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -6127,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="3">
@@ -6142,8 +3982,12 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -6160,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="3">
@@ -6175,8 +4019,12 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -6193,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="3">
@@ -6208,8 +4056,12 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6226,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="3">
@@ -6241,8 +4093,12 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -6259,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="3">
@@ -6274,8 +4130,12 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -6292,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="3">
@@ -6307,8 +4167,12 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -6325,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="3">
@@ -6340,8 +4204,12 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -6358,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92675</v>
       </c>
       <c r="G37" s="3">
@@ -6373,8 +4241,12 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6391,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="3">
@@ -6406,8 +4278,12 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -6424,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61637</v>
       </c>
       <c r="G39" s="3">
@@ -6439,8 +4315,12 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -6457,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57680</v>
       </c>
       <c r="G40" s="3">
@@ -6472,8 +4352,12 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -6490,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63160</v>
       </c>
       <c r="G41" s="3">
@@ -6505,8 +4389,12 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -6523,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="3">
@@ -6538,8 +4426,12 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -6556,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="3">
@@ -6571,8 +4463,12 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -6589,7 +4485,7 @@
         <v>261936</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74619</v>
       </c>
       <c r="G44" s="3">
@@ -6604,8 +4500,12 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -6622,7 +4522,7 @@
         <v>259257</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83479</v>
       </c>
       <c r="G45" s="3">
@@ -6637,8 +4537,12 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -6655,7 +4559,7 @@
         <v>210794</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74340</v>
       </c>
       <c r="G46" s="3">
@@ -6670,8 +4574,12 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -6688,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G47" s="3">
@@ -6703,8 +4611,12 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -6721,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G48" s="3">
@@ -6736,8 +4648,12 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -6754,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58605</v>
       </c>
       <c r="G49" s="3">
@@ -6769,8 +4685,12 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -6787,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G50" s="3">
@@ -6802,8 +4722,12 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -6820,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G51" s="3">
@@ -6835,8 +4759,12 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -6853,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G52" s="3">
@@ -6868,8 +4796,12 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -6886,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G53" s="3">
@@ -6901,8 +4833,12 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6919,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54" s="3">
@@ -6934,8 +4870,12 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -6952,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="3">
@@ -6967,8 +4907,12 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -6985,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="3">
@@ -7000,8 +4944,12 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>72</v>
       </c>
@@ -7018,7 +4966,7 @@
         <v>132456</v>
       </c>
       <c r="F57" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46369</v>
       </c>
       <c r="G57" s="23">
@@ -7036,8 +4984,12 @@
       <c r="K57" s="22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -7054,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="3">
@@ -7069,8 +5021,12 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -7087,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" ref="F59:F82" si="2">G59-SUM(D59:E59)</f>
+        <f t="shared" ref="F59:F82" si="3">G59-SUM(D59:E59)</f>
         <v>0</v>
       </c>
       <c r="G59" s="3">
@@ -7102,8 +5058,12 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -7120,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1938</v>
       </c>
       <c r="G60" s="3">
@@ -7135,8 +5095,12 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -7153,7 +5117,7 @@
         <v>258359</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G61" s="3">
@@ -7168,8 +5132,12 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -7186,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G62" s="3">
@@ -7201,8 +5169,12 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -7219,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104212</v>
       </c>
       <c r="G63" s="3">
@@ -7234,8 +5206,12 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -7252,7 +5228,7 @@
         <v>212866</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147222</v>
       </c>
       <c r="G64" s="3">
@@ -7267,8 +5243,12 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -7285,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G65" s="3">
@@ -7300,8 +5280,12 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L65" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -7318,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G66" s="3">
@@ -7333,8 +5317,12 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L66" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -7351,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7602</v>
       </c>
       <c r="G67" s="3">
@@ -7366,8 +5354,12 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L67" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -7384,7 +5376,7 @@
         <v>218717</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14898</v>
       </c>
       <c r="G68" s="3">
@@ -7399,8 +5391,12 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L82" si="4">IF(AND(SUM(H68:J68)=0,G68&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -7417,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G69" s="3">
@@ -7432,8 +5428,12 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L69" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -7450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56858</v>
       </c>
       <c r="G70" s="3">
@@ -7465,8 +5465,12 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L70" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -7483,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G71" s="3">
@@ -7498,8 +5502,12 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L71" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -7516,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18613</v>
       </c>
       <c r="G72" s="3">
@@ -7531,8 +5539,12 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L72" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -7549,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35978</v>
       </c>
       <c r="G73" s="3">
@@ -7564,8 +5576,12 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L73" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -7582,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28824</v>
       </c>
       <c r="G74" s="3">
@@ -7597,8 +5613,12 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L74" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -7615,7 +5635,7 @@
         <v>86053</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9558</v>
       </c>
       <c r="G75" s="3">
@@ -7630,8 +5650,12 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L75" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -7648,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G76" s="3">
@@ -7663,8 +5687,12 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L76" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -7681,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G77" s="3">
@@ -7696,8 +5724,12 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L77" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -7714,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="3">
@@ -7729,8 +5761,12 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L78" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -7747,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="3">
@@ -7762,8 +5798,12 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L79" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -7780,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G80" s="3">
@@ -7795,8 +5835,12 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -7813,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G81" s="3">
@@ -7828,8 +5872,12 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -7846,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G82" s="3">
@@ -7861,47 +5909,51 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L82" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="16">
-        <f t="shared" ref="D84:J84" si="3">SUM(D3:D82)</f>
+        <f t="shared" ref="D84:J84" si="5">SUM(D3:D82)</f>
         <v>4931714</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3828410</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1731274</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10491398</v>
       </c>
       <c r="H84" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K84" s="18"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C87" s="20"/>
     </row>
   </sheetData>
@@ -7912,911 +5964,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:J1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>200676</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>127827</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
-        <v>245660</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2428159</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3">
-        <v>307231</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1044384</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3">
-        <v>641234</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3">
-        <v>505099</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3">
-        <v>816460</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3">
-        <v>964425</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="3">
-        <v>293322</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="3">
-        <v>178825</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>506675</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="3">
-        <v>692343</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="3">
-        <v>437333</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="3">
-        <v>241241</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3">
-        <v>860504</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="3">
-        <v>10491398</v>
-      </c>
-      <c r="D54">
-        <v>26</v>
-      </c>
-      <c r="E54">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382CD99B-4DE2-F840-99D6-17690AB5FA44}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -8831,34 +5978,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -10466,11 +7613,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF69844-86A8-814B-929C-16DBC70CD3BB}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10481,34 +7628,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
